--- a/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_33_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_33_1_replicas_SMOTE.xlsx
@@ -17,7 +17,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="332">
+  <si>
+    <t>Baseline - Majority Class</t>
+  </si>
   <si>
     <t>KNN</t>
   </si>
@@ -43,9 +46,6 @@
     <t>SVM</t>
   </si>
   <si>
-    <t>Baseline - Majority Class</t>
-  </si>
-  <si>
     <t>Train Accuracy (F1 Score micro)</t>
   </si>
   <si>
@@ -76,895 +76,943 @@
     <t>Time</t>
   </si>
   <si>
+    <t>0.5+/-0.0</t>
+  </si>
+  <si>
+    <t>0.798</t>
+  </si>
+  <si>
+    <t>0.05+/-0.15</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>0.1+/-0.3</t>
+  </si>
+  <si>
+    <t>0.001+/-0.0</t>
+  </si>
+  <si>
     <t>0.998+/-0.0</t>
   </si>
   <si>
+    <t>0.797+/-0.0</t>
+  </si>
+  <si>
+    <t>0.612</t>
+  </si>
+  <si>
+    <t>0.996+/-0.0</t>
+  </si>
+  <si>
+    <t>0.719+/-0.015</t>
+  </si>
+  <si>
+    <t>0.295</t>
+  </si>
+  <si>
+    <t>1.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.976+/-0.004</t>
+  </si>
+  <si>
+    <t>0.667</t>
+  </si>
+  <si>
+    <t>0.003+/-0.001</t>
+  </si>
+  <si>
+    <t>0.653+/-0.002</t>
+  </si>
+  <si>
+    <t>0.65+/-0.0</t>
+  </si>
+  <si>
+    <t>0.594</t>
+  </si>
+  <si>
+    <t>0.639+/-0.002</t>
+  </si>
+  <si>
+    <t>0.637+/-0.01</t>
+  </si>
+  <si>
+    <t>0.281</t>
+  </si>
+  <si>
+    <t>0.701+/-0.004</t>
+  </si>
+  <si>
+    <t>0.7+/-0.021</t>
+  </si>
+  <si>
+    <t>0.651</t>
+  </si>
+  <si>
+    <t>0.383+/-0.035</t>
+  </si>
+  <si>
+    <t>0.596+/-0.002</t>
+  </si>
+  <si>
+    <t>0.596+/-0.0</t>
+  </si>
+  <si>
+    <t>0.448</t>
+  </si>
+  <si>
+    <t>0.567+/-0.001</t>
+  </si>
+  <si>
+    <t>0.567+/-0.008</t>
+  </si>
+  <si>
+    <t>0.232</t>
+  </si>
+  <si>
+    <t>0.817+/-0.003</t>
+  </si>
+  <si>
+    <t>0.816+/-0.01</t>
+  </si>
+  <si>
+    <t>0.752</t>
+  </si>
+  <si>
+    <t>0.009+/-0.001</t>
+  </si>
+  <si>
+    <t>0.6+/-0.004</t>
+  </si>
+  <si>
+    <t>0.599+/-0.0</t>
+  </si>
+  <si>
+    <t>0.545</t>
+  </si>
+  <si>
+    <t>0.588+/-0.003</t>
+  </si>
+  <si>
+    <t>0.588+/-0.011</t>
+  </si>
+  <si>
+    <t>0.247</t>
+  </si>
+  <si>
+    <t>0.663+/-0.008</t>
+  </si>
+  <si>
+    <t>0.663+/-0.026</t>
+  </si>
+  <si>
+    <t>0.611</t>
+  </si>
+  <si>
+    <t>0.01+/-0.001</t>
+  </si>
+  <si>
+    <t>0.823+/-0.013</t>
+  </si>
+  <si>
+    <t>0.765+/-0.0</t>
+  </si>
+  <si>
+    <t>0.708</t>
+  </si>
+  <si>
+    <t>0.811+/-0.019</t>
+  </si>
+  <si>
+    <t>0.757+/-0.022</t>
+  </si>
+  <si>
+    <t>0.356</t>
+  </si>
+  <si>
+    <t>0.844+/-0.056</t>
+  </si>
+  <si>
+    <t>0.785+/-0.055</t>
+  </si>
+  <si>
+    <t>0.557</t>
+  </si>
+  <si>
+    <t>5.458+/-0.97</t>
+  </si>
+  <si>
+    <t>0.779+/-0.003</t>
+  </si>
+  <si>
+    <t>0.735+/-0.0</t>
+  </si>
+  <si>
+    <t>0.747</t>
+  </si>
+  <si>
+    <t>0.835+/-0.061</t>
+  </si>
+  <si>
+    <t>0.783+/-0.058</t>
+  </si>
+  <si>
+    <t>0.353</t>
+  </si>
+  <si>
+    <t>0.712+/-0.091</t>
+  </si>
+  <si>
+    <t>0.671+/-0.101</t>
+  </si>
+  <si>
+    <t>0.307</t>
+  </si>
+  <si>
+    <t>0.201+/-0.005</t>
+  </si>
+  <si>
+    <t>0.771+/-0.006</t>
+  </si>
+  <si>
+    <t>0.73+/-0.0</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>0.783+/-0.029</t>
+  </si>
+  <si>
+    <t>0.741+/-0.022</t>
+  </si>
+  <si>
+    <t>0.754+/-0.055</t>
+  </si>
+  <si>
+    <t>0.712+/-0.057</t>
+  </si>
+  <si>
+    <t>0.427</t>
+  </si>
+  <si>
+    <t>0.285+/-0.005</t>
+  </si>
+  <si>
+    <t>0.766+/-0.002</t>
+  </si>
+  <si>
+    <t>0.741+/-0.0</t>
+  </si>
+  <si>
+    <t>0.674</t>
+  </si>
+  <si>
+    <t>0.742+/-0.003</t>
+  </si>
+  <si>
+    <t>0.718+/-0.013</t>
+  </si>
+  <si>
+    <t>0.336</t>
+  </si>
+  <si>
+    <t>0.818+/-0.004</t>
+  </si>
+  <si>
+    <t>0.795+/-0.015</t>
+  </si>
+  <si>
+    <t>0.632</t>
+  </si>
+  <si>
+    <t>43.004+/-2.961</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.82+/-0.0</t>
+  </si>
+  <si>
+    <t>0.644</t>
+  </si>
+  <si>
+    <t>0.74+/-0.011</t>
+  </si>
+  <si>
+    <t>0.245</t>
+  </si>
+  <si>
+    <t>0.988+/-0.004</t>
+  </si>
+  <si>
+    <t>0.659</t>
+  </si>
+  <si>
+    <t>0.003+/-0.0</t>
+  </si>
+  <si>
+    <t>0.665+/-0.001</t>
+  </si>
+  <si>
+    <t>0.664+/-0.0</t>
+  </si>
+  <si>
+    <t>0.609</t>
+  </si>
+  <si>
+    <t>0.654+/-0.001</t>
+  </si>
+  <si>
+    <t>0.654+/-0.011</t>
+  </si>
+  <si>
+    <t>0.221</t>
+  </si>
+  <si>
+    <t>0.698+/-0.003</t>
+  </si>
+  <si>
+    <t>0.698+/-0.015</t>
+  </si>
+  <si>
+    <t>0.638</t>
+  </si>
+  <si>
+    <t>0.508+/-0.049</t>
+  </si>
+  <si>
+    <t>0.604+/-0.002</t>
+  </si>
+  <si>
+    <t>0.603+/-0.0</t>
+  </si>
+  <si>
+    <t>0.455</t>
+  </si>
+  <si>
+    <t>0.575+/-0.001</t>
+  </si>
+  <si>
+    <t>0.574+/-0.011</t>
+  </si>
+  <si>
+    <t>0.183</t>
+  </si>
+  <si>
+    <t>0.803+/-0.004</t>
+  </si>
+  <si>
+    <t>0.803+/-0.012</t>
+  </si>
+  <si>
+    <t>0.76</t>
+  </si>
+  <si>
+    <t>0.01+/-0.0</t>
+  </si>
+  <si>
+    <t>0.607+/-0.001</t>
+  </si>
+  <si>
+    <t>0.607+/-0.0</t>
+  </si>
+  <si>
+    <t>0.559</t>
+  </si>
+  <si>
+    <t>0.597+/-0.001</t>
+  </si>
+  <si>
+    <t>0.597+/-0.014</t>
+  </si>
+  <si>
+    <t>0.195</t>
+  </si>
+  <si>
+    <t>0.662+/-0.002</t>
+  </si>
+  <si>
+    <t>0.663+/-0.017</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>0.853+/-0.009</t>
+  </si>
+  <si>
     <t>0.801+/-0.0</t>
   </si>
   <si>
+    <t>0.722</t>
+  </si>
+  <si>
+    <t>0.826+/-0.019</t>
+  </si>
+  <si>
+    <t>0.772+/-0.017</t>
+  </si>
+  <si>
+    <t>0.261</t>
+  </si>
+  <si>
+    <t>0.895+/-0.022</t>
+  </si>
+  <si>
+    <t>0.854+/-0.025</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>5.384+/-1.331</t>
+  </si>
+  <si>
+    <t>0.814+/-0.004</t>
+  </si>
+  <si>
+    <t>0.777+/-0.0</t>
+  </si>
+  <si>
+    <t>0.663</t>
+  </si>
+  <si>
+    <t>0.784+/-0.011</t>
+  </si>
+  <si>
+    <t>0.751+/-0.017</t>
+  </si>
+  <si>
+    <t>0.223</t>
+  </si>
+  <si>
+    <t>0.867+/-0.026</t>
+  </si>
+  <si>
+    <t>0.83+/-0.029</t>
+  </si>
+  <si>
+    <t>0.502</t>
+  </si>
+  <si>
+    <t>0.184+/-0.011</t>
+  </si>
+  <si>
+    <t>0.807+/-0.004</t>
+  </si>
+  <si>
+    <t>0.661</t>
+  </si>
+  <si>
+    <t>0.777+/-0.01</t>
+  </si>
+  <si>
+    <t>0.75+/-0.017</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>0.864+/-0.021</t>
+  </si>
+  <si>
+    <t>0.831+/-0.027</t>
+  </si>
+  <si>
+    <t>0.495</t>
+  </si>
+  <si>
+    <t>0.249+/-0.015</t>
+  </si>
+  <si>
+    <t>0.787+/-0.002</t>
+  </si>
+  <si>
+    <t>0.766+/-0.0</t>
+  </si>
+  <si>
+    <t>0.679</t>
+  </si>
+  <si>
+    <t>0.759+/-0.002</t>
+  </si>
+  <si>
+    <t>0.74+/-0.009</t>
+  </si>
+  <si>
+    <t>0.252</t>
+  </si>
+  <si>
+    <t>0.84+/-0.004</t>
+  </si>
+  <si>
+    <t>0.821+/-0.018</t>
+  </si>
+  <si>
+    <t>0.577</t>
+  </si>
+  <si>
+    <t>50.094+/-4.651</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.15+/-0.229</t>
+  </si>
+  <si>
+    <t>0.3+/-0.458</t>
+  </si>
+  <si>
+    <t>0.999+/-0.0</t>
+  </si>
+  <si>
+    <t>0.727+/-0.0</t>
+  </si>
+  <si>
+    <t>0.564</t>
+  </si>
+  <si>
+    <t>0.663+/-0.012</t>
+  </si>
+  <si>
+    <t>0.997+/-0.0</t>
+  </si>
+  <si>
+    <t>0.923+/-0.01</t>
+  </si>
+  <si>
+    <t>0.586</t>
+  </si>
+  <si>
+    <t>0.002+/-0.0</t>
+  </si>
+  <si>
+    <t>0.585+/-0.002</t>
+  </si>
+  <si>
+    <t>0.582+/-0.0</t>
+  </si>
+  <si>
     <t>0.604</t>
   </si>
   <si>
-    <t>0.996+/-0.0</t>
-  </si>
-  <si>
-    <t>0.725+/-0.013</t>
-  </si>
-  <si>
-    <t>0.284</t>
-  </si>
-  <si>
-    <t>1.0+/-0.0</t>
-  </si>
-  <si>
-    <t>0.972+/-0.007</t>
-  </si>
-  <si>
-    <t>0.635</t>
-  </si>
-  <si>
-    <t>0.004+/-0.001</t>
-  </si>
-  <si>
-    <t>0.649+/-0.002</t>
-  </si>
-  <si>
-    <t>0.647+/-0.0</t>
-  </si>
-  <si>
-    <t>0.585</t>
-  </si>
-  <si>
-    <t>0.634+/-0.002</t>
-  </si>
-  <si>
-    <t>0.633+/-0.015</t>
-  </si>
-  <si>
-    <t>0.279</t>
-  </si>
-  <si>
-    <t>0.702+/-0.003</t>
-  </si>
-  <si>
-    <t>0.7+/-0.022</t>
-  </si>
-  <si>
-    <t>0.667</t>
-  </si>
-  <si>
-    <t>0.355+/-0.037</t>
-  </si>
-  <si>
     <t>0.594+/-0.002</t>
   </si>
   <si>
-    <t>0.594+/-0.0</t>
-  </si>
-  <si>
-    <t>0.436</t>
+    <t>0.592+/-0.013</t>
+  </si>
+  <si>
+    <t>0.535+/-0.003</t>
+  </si>
+  <si>
+    <t>0.531+/-0.018</t>
+  </si>
+  <si>
+    <t>0.532</t>
+  </si>
+  <si>
+    <t>0.215+/-0.025</t>
+  </si>
+  <si>
+    <t>0.563+/-0.002</t>
+  </si>
+  <si>
+    <t>0.561+/-0.0</t>
+  </si>
+  <si>
+    <t>0.642</t>
+  </si>
+  <si>
+    <t>0.591+/-0.002</t>
+  </si>
+  <si>
+    <t>0.588+/-0.014</t>
+  </si>
+  <si>
+    <t>0.37</t>
+  </si>
+  <si>
+    <t>0.411+/-0.013</t>
+  </si>
+  <si>
+    <t>0.408+/-0.028</t>
+  </si>
+  <si>
+    <t>0.419</t>
+  </si>
+  <si>
+    <t>0.006+/-0.001</t>
   </si>
   <si>
     <t>0.564+/-0.001</t>
   </si>
   <si>
-    <t>0.564+/-0.009</t>
-  </si>
-  <si>
-    <t>0.233</t>
-  </si>
-  <si>
-    <t>0.827+/-0.002</t>
-  </si>
-  <si>
-    <t>0.827+/-0.014</t>
-  </si>
-  <si>
-    <t>0.781</t>
-  </si>
-  <si>
-    <t>0.007+/-0.001</t>
-  </si>
-  <si>
-    <t>0.591+/-0.001</t>
-  </si>
-  <si>
-    <t>0.591+/-0.0</t>
-  </si>
-  <si>
-    <t>0.548</t>
-  </si>
-  <si>
-    <t>0.582+/-0.001</t>
-  </si>
-  <si>
-    <t>0.582+/-0.008</t>
-  </si>
-  <si>
-    <t>0.248</t>
-  </si>
-  <si>
-    <t>0.645+/-0.002</t>
-  </si>
-  <si>
-    <t>0.645+/-0.02</t>
-  </si>
-  <si>
-    <t>0.611</t>
+    <t>0.563+/-0.0</t>
+  </si>
+  <si>
+    <t>0.589</t>
+  </si>
+  <si>
+    <t>0.57+/-0.002</t>
+  </si>
+  <si>
+    <t>0.569+/-0.012</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>0.516+/-0.002</t>
+  </si>
+  <si>
+    <t>0.516+/-0.017</t>
+  </si>
+  <si>
+    <t>0.517</t>
+  </si>
+  <si>
+    <t>0.741+/-0.011</t>
+  </si>
+  <si>
+    <t>0.653+/-0.0</t>
+  </si>
+  <si>
+    <t>0.724+/-0.011</t>
+  </si>
+  <si>
+    <t>0.638+/-0.011</t>
+  </si>
+  <si>
+    <t>0.326</t>
+  </si>
+  <si>
+    <t>0.78+/-0.027</t>
+  </si>
+  <si>
+    <t>0.705+/-0.033</t>
+  </si>
+  <si>
+    <t>4.983+/-0.794</t>
+  </si>
+  <si>
+    <t>0.758+/-0.005</t>
+  </si>
+  <si>
+    <t>0.686+/-0.0</t>
+  </si>
+  <si>
+    <t>0.694</t>
+  </si>
+  <si>
+    <t>0.831+/-0.065</t>
+  </si>
+  <si>
+    <t>0.738+/-0.053</t>
+  </si>
+  <si>
+    <t>0.407</t>
+  </si>
+  <si>
+    <t>0.664+/-0.079</t>
+  </si>
+  <si>
+    <t>0.594+/-0.068</t>
+  </si>
+  <si>
+    <t>0.229</t>
+  </si>
+  <si>
+    <t>0.168+/-0.006</t>
+  </si>
+  <si>
+    <t>0.743+/-0.007</t>
+  </si>
+  <si>
+    <t>0.688+/-0.0</t>
+  </si>
+  <si>
+    <t>0.629</t>
+  </si>
+  <si>
+    <t>0.807+/-0.069</t>
+  </si>
+  <si>
+    <t>0.738+/-0.059</t>
+  </si>
+  <si>
+    <t>0.343</t>
+  </si>
+  <si>
+    <t>0.659+/-0.085</t>
+  </si>
+  <si>
+    <t>0.604+/-0.086</t>
+  </si>
+  <si>
+    <t>0.373</t>
+  </si>
+  <si>
+    <t>0.247+/-0.005</t>
+  </si>
+  <si>
+    <t>0.677+/-0.003</t>
+  </si>
+  <si>
+    <t>0.635+/-0.0</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>0.667+/-0.003</t>
+  </si>
+  <si>
+    <t>0.628+/-0.015</t>
+  </si>
+  <si>
+    <t>0.344</t>
+  </si>
+  <si>
+    <t>0.706+/-0.01</t>
+  </si>
+  <si>
+    <t>0.667+/-0.02</t>
+  </si>
+  <si>
+    <t>41.855+/-3.145</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.25+/-0.25</t>
+  </si>
+  <si>
+    <t>0.5+/-0.5</t>
+  </si>
+  <si>
+    <t>0.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.701+/-0.0</t>
+  </si>
+  <si>
+    <t>0.531</t>
+  </si>
+  <si>
+    <t>0.646+/-0.009</t>
+  </si>
+  <si>
+    <t>0.339</t>
+  </si>
+  <si>
+    <t>0.89+/-0.016</t>
+  </si>
+  <si>
+    <t>0.551</t>
+  </si>
+  <si>
+    <t>0.568+/-0.003</t>
+  </si>
+  <si>
+    <t>0.562+/-0.0</t>
+  </si>
+  <si>
+    <t>0.581</t>
+  </si>
+  <si>
+    <t>0.574+/-0.003</t>
+  </si>
+  <si>
+    <t>0.567+/-0.011</t>
+  </si>
+  <si>
+    <t>0.367</t>
+  </si>
+  <si>
+    <t>0.529+/-0.006</t>
+  </si>
+  <si>
+    <t>0.521+/-0.023</t>
+  </si>
+  <si>
+    <t>0.497</t>
+  </si>
+  <si>
+    <t>0.227+/-0.017</t>
+  </si>
+  <si>
+    <t>0.552+/-0.002</t>
+  </si>
+  <si>
+    <t>0.55+/-0.0</t>
+  </si>
+  <si>
+    <t>0.616</t>
+  </si>
+  <si>
+    <t>0.571+/-0.002</t>
+  </si>
+  <si>
+    <t>0.568+/-0.017</t>
+  </si>
+  <si>
+    <t>0.39</t>
+  </si>
+  <si>
+    <t>0.422+/-0.015</t>
+  </si>
+  <si>
+    <t>0.419+/-0.024</t>
+  </si>
+  <si>
+    <t>0.438</t>
+  </si>
+  <si>
+    <t>0.548+/-0.002</t>
+  </si>
+  <si>
+    <t>0.548+/-0.0</t>
+  </si>
+  <si>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>0.553+/-0.003</t>
+  </si>
+  <si>
+    <t>0.553+/-0.014</t>
+  </si>
+  <si>
+    <t>0.503+/-0.004</t>
+  </si>
+  <si>
+    <t>0.501+/-0.016</t>
+  </si>
+  <si>
+    <t>0.501</t>
   </si>
   <si>
     <t>0.008+/-0.001</t>
   </si>
   <si>
-    <t>0.822+/-0.008</t>
-  </si>
-  <si>
-    <t>0.763+/-0.0</t>
-  </si>
-  <si>
-    <t>0.656</t>
-  </si>
-  <si>
-    <t>0.801+/-0.013</t>
-  </si>
-  <si>
-    <t>0.741+/-0.017</t>
-  </si>
-  <si>
-    <t>0.305</t>
-  </si>
-  <si>
-    <t>0.86+/-0.024</t>
-  </si>
-  <si>
-    <t>0.811+/-0.027</t>
-  </si>
-  <si>
-    <t>0.552</t>
-  </si>
-  <si>
-    <t>4.886+/-1.029</t>
-  </si>
-  <si>
-    <t>0.765+/-0.008</t>
-  </si>
-  <si>
-    <t>0.719+/-0.0</t>
-  </si>
-  <si>
-    <t>0.677</t>
-  </si>
-  <si>
-    <t>0.752+/-0.025</t>
-  </si>
-  <si>
-    <t>0.709+/-0.026</t>
-  </si>
-  <si>
-    <t>0.318</t>
-  </si>
-  <si>
-    <t>0.795+/-0.056</t>
-  </si>
-  <si>
-    <t>0.749+/-0.065</t>
-  </si>
-  <si>
-    <t>0.523</t>
-  </si>
-  <si>
-    <t>0.155+/-0.012</t>
-  </si>
-  <si>
-    <t>0.753+/-0.006</t>
-  </si>
-  <si>
-    <t>0.714+/-0.0</t>
-  </si>
-  <si>
-    <t>0.697</t>
-  </si>
-  <si>
-    <t>0.702+/-0.018</t>
-  </si>
-  <si>
-    <t>0.335</t>
-  </si>
-  <si>
-    <t>0.779+/-0.04</t>
-  </si>
-  <si>
-    <t>0.746+/-0.041</t>
-  </si>
-  <si>
-    <t>0.509</t>
-  </si>
-  <si>
-    <t>0.218+/-0.018</t>
-  </si>
-  <si>
-    <t>0.751+/-0.002</t>
-  </si>
-  <si>
-    <t>0.729+/-0.0</t>
-  </si>
-  <si>
-    <t>0.658</t>
-  </si>
-  <si>
-    <t>0.725+/-0.003</t>
-  </si>
-  <si>
-    <t>0.704+/-0.012</t>
-  </si>
-  <si>
-    <t>0.325</t>
-  </si>
-  <si>
-    <t>0.809+/-0.004</t>
-  </si>
-  <si>
-    <t>0.788+/-0.014</t>
-  </si>
-  <si>
-    <t>0.651</t>
-  </si>
-  <si>
-    <t>51.488+/-8.886</t>
-  </si>
-  <si>
-    <t>0.818+/-0.0</t>
-  </si>
-  <si>
-    <t>0.643</t>
-  </si>
-  <si>
-    <t>0.737+/-0.014</t>
-  </si>
-  <si>
-    <t>0.238</t>
-  </si>
-  <si>
-    <t>0.988+/-0.003</t>
-  </si>
-  <si>
-    <t>0.627</t>
-  </si>
-  <si>
-    <t>0.66+/-0.002</t>
-  </si>
-  <si>
-    <t>0.658+/-0.0</t>
-  </si>
-  <si>
-    <t>0.605</t>
-  </si>
-  <si>
-    <t>0.65+/-0.002</t>
-  </si>
-  <si>
-    <t>0.649+/-0.01</t>
-  </si>
-  <si>
-    <t>0.221</t>
-  </si>
-  <si>
-    <t>0.691+/-0.004</t>
-  </si>
-  <si>
-    <t>0.69+/-0.018</t>
-  </si>
-  <si>
-    <t>0.645</t>
-  </si>
-  <si>
-    <t>0.818+/-0.107</t>
-  </si>
-  <si>
-    <t>0.597+/-0.002</t>
-  </si>
-  <si>
-    <t>0.597+/-0.0</t>
-  </si>
-  <si>
-    <t>0.46</t>
-  </si>
-  <si>
-    <t>0.57+/-0.001</t>
-  </si>
-  <si>
-    <t>0.57+/-0.014</t>
-  </si>
-  <si>
-    <t>0.186</t>
-  </si>
-  <si>
-    <t>0.79+/-0.005</t>
-  </si>
-  <si>
-    <t>0.791+/-0.014</t>
-  </si>
-  <si>
-    <t>0.767</t>
-  </si>
-  <si>
-    <t>0.016+/-0.003</t>
-  </si>
-  <si>
-    <t>0.604+/-0.002</t>
-  </si>
-  <si>
-    <t>0.603+/-0.0</t>
-  </si>
-  <si>
-    <t>0.558</t>
-  </si>
-  <si>
-    <t>0.593+/-0.002</t>
-  </si>
-  <si>
-    <t>0.593+/-0.016</t>
-  </si>
-  <si>
-    <t>0.195</t>
+    <t>0.72+/-0.015</t>
+  </si>
+  <si>
+    <t>0.626+/-0.0</t>
+  </si>
+  <si>
+    <t>0.524</t>
+  </si>
+  <si>
+    <t>0.701+/-0.022</t>
+  </si>
+  <si>
+    <t>0.613+/-0.021</t>
+  </si>
+  <si>
+    <t>0.348</t>
+  </si>
+  <si>
+    <t>0.77+/-0.046</t>
+  </si>
+  <si>
+    <t>0.689+/-0.033</t>
+  </si>
+  <si>
+    <t>0.628</t>
+  </si>
+  <si>
+    <t>3.786+/-0.966</t>
+  </si>
+  <si>
+    <t>0.729+/-0.006</t>
+  </si>
+  <si>
+    <t>0.663+/-0.0</t>
+  </si>
+  <si>
+    <t>0.777+/-0.056</t>
+  </si>
+  <si>
+    <t>0.7+/-0.058</t>
+  </si>
+  <si>
+    <t>0.361</t>
+  </si>
+  <si>
+    <t>0.66+/-0.086</t>
+  </si>
+  <si>
+    <t>0.595+/-0.08</t>
+  </si>
+  <si>
+    <t>0.351</t>
+  </si>
+  <si>
+    <t>0.121+/-0.007</t>
+  </si>
+  <si>
+    <t>0.718+/-0.006</t>
+  </si>
+  <si>
+    <t>0.67+/-0.0</t>
+  </si>
+  <si>
+    <t>0.756+/-0.047</t>
+  </si>
+  <si>
+    <t>0.7+/-0.047</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>0.655+/-0.065</t>
+  </si>
+  <si>
+    <t>0.608+/-0.065</t>
+  </si>
+  <si>
+    <t>0.365</t>
+  </si>
+  <si>
+    <t>0.166+/-0.009</t>
+  </si>
+  <si>
+    <t>0.665+/-0.003</t>
+  </si>
+  <si>
+    <t>0.617+/-0.0</t>
+  </si>
+  <si>
+    <t>0.582</t>
   </si>
   <si>
     <t>0.658+/-0.003</t>
   </si>
   <si>
-    <t>0.657+/-0.022</t>
-  </si>
-  <si>
-    <t>0.624</t>
-  </si>
-  <si>
-    <t>0.021+/-0.006</t>
-  </si>
-  <si>
-    <t>0.855+/-0.006</t>
-  </si>
-  <si>
-    <t>0.715</t>
-  </si>
-  <si>
-    <t>0.83+/-0.022</t>
-  </si>
-  <si>
-    <t>0.774+/-0.018</t>
-  </si>
-  <si>
-    <t>0.26</t>
-  </si>
-  <si>
-    <t>0.895+/-0.034</t>
-  </si>
-  <si>
-    <t>0.853+/-0.034</t>
-  </si>
-  <si>
-    <t>0.487</t>
-  </si>
-  <si>
-    <t>8.378+/-1.288</t>
-  </si>
-  <si>
-    <t>0.798+/-0.011</t>
-  </si>
-  <si>
-    <t>0.66</t>
-  </si>
-  <si>
-    <t>0.757+/-0.015</t>
-  </si>
-  <si>
-    <t>0.727+/-0.016</t>
-  </si>
-  <si>
-    <t>0.21</t>
-  </si>
-  <si>
-    <t>0.877+/-0.028</t>
-  </si>
-  <si>
-    <t>0.844+/-0.028</t>
-  </si>
-  <si>
-    <t>0.459</t>
-  </si>
-  <si>
-    <t>0.212+/-0.027</t>
-  </si>
-  <si>
-    <t>0.779+/-0.009</t>
-  </si>
-  <si>
-    <t>0.748+/-0.0</t>
-  </si>
-  <si>
-    <t>0.665</t>
-  </si>
-  <si>
-    <t>0.766+/-0.012</t>
-  </si>
-  <si>
-    <t>0.736+/-0.019</t>
-  </si>
-  <si>
-    <t>0.197</t>
-  </si>
-  <si>
-    <t>0.805+/-0.031</t>
-  </si>
-  <si>
-    <t>0.774+/-0.033</t>
-  </si>
-  <si>
-    <t>0.401</t>
-  </si>
-  <si>
-    <t>0.282+/-0.031</t>
-  </si>
-  <si>
-    <t>0.783+/-0.001</t>
-  </si>
-  <si>
-    <t>0.689</t>
-  </si>
-  <si>
-    <t>0.761+/-0.001</t>
-  </si>
-  <si>
-    <t>0.741+/-0.008</t>
-  </si>
-  <si>
-    <t>0.255</t>
-  </si>
-  <si>
-    <t>0.826+/-0.003</t>
-  </si>
-  <si>
-    <t>0.81+/-0.013</t>
-  </si>
-  <si>
-    <t>0.559</t>
-  </si>
-  <si>
-    <t>65.046+/-8.101</t>
-  </si>
-  <si>
-    <t>0.727+/-0.0</t>
-  </si>
-  <si>
-    <t>0.544</t>
-  </si>
-  <si>
-    <t>0.664+/-0.011</t>
-  </si>
-  <si>
-    <t>0.312</t>
-  </si>
-  <si>
-    <t>0.919+/-0.012</t>
-  </si>
-  <si>
-    <t>0.536</t>
-  </si>
-  <si>
-    <t>0.003+/-0.0</t>
-  </si>
-  <si>
-    <t>0.586+/-0.002</t>
-  </si>
-  <si>
-    <t>0.583+/-0.0</t>
-  </si>
-  <si>
-    <t>0.595</t>
-  </si>
-  <si>
-    <t>0.59+/-0.016</t>
-  </si>
-  <si>
-    <t>0.345</t>
-  </si>
-  <si>
-    <t>0.544+/-0.003</t>
-  </si>
-  <si>
-    <t>0.541+/-0.023</t>
+    <t>0.612+/-0.011</t>
+  </si>
+  <si>
+    <t>0.372</t>
+  </si>
+  <si>
+    <t>0.686+/-0.006</t>
+  </si>
+  <si>
+    <t>0.637+/-0.023</t>
   </si>
   <si>
     <t>0.515</t>
   </si>
   <si>
-    <t>0.31+/-0.063</t>
-  </si>
-  <si>
-    <t>0.56+/-0.003</t>
-  </si>
-  <si>
-    <t>0.558+/-0.0</t>
-  </si>
-  <si>
-    <t>0.633</t>
-  </si>
-  <si>
-    <t>0.584+/-0.019</t>
-  </si>
-  <si>
-    <t>0.361</t>
-  </si>
-  <si>
-    <t>0.409+/-0.015</t>
-  </si>
-  <si>
-    <t>0.407+/-0.018</t>
-  </si>
-  <si>
-    <t>0.421</t>
-  </si>
-  <si>
-    <t>0.009+/-0.001</t>
-  </si>
-  <si>
-    <t>0.561+/-0.001</t>
-  </si>
-  <si>
-    <t>0.559+/-0.0</t>
-  </si>
-  <si>
-    <t>0.583</t>
-  </si>
-  <si>
-    <t>0.566+/-0.002</t>
-  </si>
-  <si>
-    <t>0.565+/-0.014</t>
-  </si>
-  <si>
-    <t>0.334</t>
-  </si>
-  <si>
-    <t>0.517+/-0.002</t>
-  </si>
-  <si>
-    <t>0.515+/-0.02</t>
-  </si>
-  <si>
-    <t>0.01+/-0.001</t>
-  </si>
-  <si>
-    <t>0.734+/-0.008</t>
-  </si>
-  <si>
-    <t>0.651+/-0.0</t>
-  </si>
-  <si>
-    <t>0.58</t>
-  </si>
-  <si>
-    <t>0.726+/-0.019</t>
-  </si>
-  <si>
-    <t>0.646+/-0.017</t>
-  </si>
-  <si>
-    <t>0.327</t>
-  </si>
-  <si>
-    <t>0.752+/-0.036</t>
-  </si>
-  <si>
-    <t>0.674+/-0.052</t>
-  </si>
-  <si>
-    <t>5.374+/-0.42</t>
-  </si>
-  <si>
-    <t>0.749+/-0.005</t>
-  </si>
-  <si>
-    <t>0.683+/-0.0</t>
-  </si>
-  <si>
-    <t>0.686</t>
-  </si>
-  <si>
-    <t>0.868+/-0.047</t>
-  </si>
-  <si>
-    <t>0.772+/-0.033</t>
-  </si>
-  <si>
-    <t>0.393</t>
-  </si>
-  <si>
-    <t>0.593+/-0.055</t>
-  </si>
-  <si>
-    <t>0.525+/-0.06</t>
-  </si>
-  <si>
-    <t>0.247</t>
-  </si>
-  <si>
-    <t>0.139+/-0.011</t>
-  </si>
-  <si>
-    <t>0.736+/-0.008</t>
-  </si>
-  <si>
-    <t>0.681+/-0.0</t>
-  </si>
-  <si>
-    <t>0.71</t>
-  </si>
-  <si>
-    <t>0.85+/-0.046</t>
-  </si>
-  <si>
-    <t>0.77+/-0.042</t>
-  </si>
-  <si>
-    <t>0.441</t>
-  </si>
-  <si>
-    <t>0.582+/-0.058</t>
-  </si>
-  <si>
-    <t>0.524+/-0.052</t>
-  </si>
-  <si>
-    <t>0.181</t>
-  </si>
-  <si>
-    <t>0.186+/-0.006</t>
-  </si>
-  <si>
-    <t>0.671+/-0.002</t>
-  </si>
-  <si>
-    <t>0.632+/-0.0</t>
-  </si>
-  <si>
-    <t>0.601</t>
-  </si>
-  <si>
-    <t>0.668+/-0.004</t>
-  </si>
-  <si>
-    <t>0.629+/-0.018</t>
-  </si>
-  <si>
-    <t>0.352</t>
-  </si>
-  <si>
-    <t>0.68+/-0.005</t>
-  </si>
-  <si>
-    <t>0.644+/-0.017</t>
-  </si>
-  <si>
-    <t>0.522</t>
-  </si>
-  <si>
-    <t>50.239+/-3.313</t>
-  </si>
-  <si>
-    <t>0.997+/-0.001</t>
-  </si>
-  <si>
-    <t>0.704+/-0.0</t>
-  </si>
-  <si>
-    <t>0.999+/-0.003</t>
-  </si>
-  <si>
-    <t>0.649+/-0.012</t>
-  </si>
-  <si>
-    <t>0.356</t>
-  </si>
-  <si>
-    <t>0.996+/-0.001</t>
-  </si>
-  <si>
-    <t>0.887+/-0.008</t>
-  </si>
-  <si>
-    <t>0.565</t>
-  </si>
-  <si>
-    <t>0.567+/-0.002</t>
-  </si>
-  <si>
-    <t>0.562+/-0.0</t>
-  </si>
-  <si>
-    <t>0.576</t>
-  </si>
-  <si>
-    <t>0.572+/-0.003</t>
-  </si>
-  <si>
-    <t>0.567+/-0.009</t>
-  </si>
-  <si>
-    <t>0.365</t>
-  </si>
-  <si>
-    <t>0.534+/-0.006</t>
-  </si>
-  <si>
-    <t>0.529+/-0.019</t>
-  </si>
-  <si>
-    <t>0.51</t>
-  </si>
-  <si>
-    <t>0.318+/-0.042</t>
-  </si>
-  <si>
-    <t>0.549+/-0.002</t>
-  </si>
-  <si>
-    <t>0.548+/-0.0</t>
-  </si>
-  <si>
-    <t>0.615</t>
-  </si>
-  <si>
-    <t>0.568+/-0.003</t>
-  </si>
-  <si>
-    <t>0.567+/-0.021</t>
-  </si>
-  <si>
-    <t>0.388</t>
-  </si>
-  <si>
-    <t>0.409+/-0.013</t>
-  </si>
-  <si>
-    <t>0.411+/-0.023</t>
-  </si>
-  <si>
-    <t>0.433</t>
-  </si>
-  <si>
-    <t>0.55+/-0.002</t>
-  </si>
-  <si>
-    <t>0.575</t>
-  </si>
-  <si>
-    <t>0.553+/-0.002</t>
-  </si>
-  <si>
-    <t>0.55+/-0.014</t>
-  </si>
-  <si>
-    <t>0.369</t>
-  </si>
-  <si>
-    <t>0.525+/-0.003</t>
-  </si>
-  <si>
-    <t>0.526+/-0.017</t>
-  </si>
-  <si>
-    <t>0.538</t>
-  </si>
-  <si>
-    <t>0.728+/-0.013</t>
-  </si>
-  <si>
-    <t>0.636+/-0.0</t>
-  </si>
-  <si>
-    <t>0.581</t>
-  </si>
-  <si>
-    <t>0.726+/-0.024</t>
-  </si>
-  <si>
-    <t>0.633+/-0.026</t>
-  </si>
-  <si>
-    <t>0.736+/-0.059</t>
-  </si>
-  <si>
-    <t>0.653+/-0.059</t>
-  </si>
-  <si>
-    <t>0.469</t>
-  </si>
-  <si>
-    <t>5.828+/-1.399</t>
-  </si>
-  <si>
-    <t>0.735+/-0.004</t>
-  </si>
-  <si>
-    <t>0.662+/-0.0</t>
-  </si>
-  <si>
-    <t>0.584</t>
-  </si>
-  <si>
-    <t>0.737+/-0.016</t>
-  </si>
-  <si>
-    <t>0.665+/-0.024</t>
-  </si>
-  <si>
-    <t>0.346</t>
-  </si>
-  <si>
-    <t>0.733+/-0.03</t>
-  </si>
-  <si>
-    <t>0.656+/-0.028</t>
-  </si>
-  <si>
-    <t>0.394</t>
-  </si>
-  <si>
-    <t>0.151+/-0.01</t>
-  </si>
-  <si>
-    <t>0.719+/-0.007</t>
-  </si>
-  <si>
-    <t>0.661+/-0.0</t>
-  </si>
-  <si>
-    <t>0.592</t>
-  </si>
-  <si>
-    <t>0.747+/-0.042</t>
-  </si>
-  <si>
-    <t>0.683+/-0.035</t>
-  </si>
-  <si>
-    <t>0.354</t>
-  </si>
-  <si>
-    <t>0.671+/-0.058</t>
-  </si>
-  <si>
-    <t>0.613+/-0.079</t>
-  </si>
-  <si>
-    <t>0.208+/-0.008</t>
-  </si>
-  <si>
-    <t>0.67+/-0.003</t>
-  </si>
-  <si>
-    <t>0.621+/-0.0</t>
-  </si>
-  <si>
-    <t>0.586</t>
-  </si>
-  <si>
-    <t>0.664+/-0.003</t>
-  </si>
-  <si>
-    <t>0.615+/-0.009</t>
-  </si>
-  <si>
-    <t>0.379</t>
-  </si>
-  <si>
-    <t>0.691+/-0.007</t>
-  </si>
-  <si>
-    <t>0.648+/-0.02</t>
-  </si>
-  <si>
-    <t>52.056+/-5.521</t>
+    <t>30.803+/-0.559</t>
   </si>
 </sst>
 </file>
@@ -1365,28 +1413,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J2">
-        <v>0.5</v>
+        <v>85</v>
+      </c>
+      <c r="J2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1394,31 +1442,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s">
-        <v>89</v>
-      </c>
-      <c r="J3">
-        <v>0.5</v>
+        <v>86</v>
+      </c>
+      <c r="J3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1426,31 +1474,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J4">
-        <v>0.7983870967741935</v>
+        <v>87</v>
+      </c>
+      <c r="J4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1458,31 +1506,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="I5" t="s">
-        <v>91</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>88</v>
+      </c>
+      <c r="J5" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1490,31 +1538,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s">
-        <v>92</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>89</v>
+      </c>
+      <c r="J6" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1522,31 +1570,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" t="s">
         <v>83</v>
       </c>
-      <c r="I7" t="s">
-        <v>93</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+      <c r="J7" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1554,31 +1602,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1586,31 +1634,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G9" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>95</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>91</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1618,31 +1666,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H10" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I10" t="s">
-        <v>96</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>92</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1650,31 +1698,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H11" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I11" t="s">
-        <v>97</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>93</v>
+      </c>
+      <c r="J11" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1727,28 +1775,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I2" t="s">
-        <v>162</v>
-      </c>
-      <c r="J2">
-        <v>0.5</v>
+        <v>161</v>
+      </c>
+      <c r="J2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1756,31 +1804,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
         <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="H3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="I3" t="s">
-        <v>60</v>
-      </c>
-      <c r="J3">
-        <v>0.5</v>
+        <v>152</v>
+      </c>
+      <c r="J3" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1788,31 +1836,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
         <v>106</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I4" t="s">
-        <v>163</v>
-      </c>
-      <c r="J4">
-        <v>0.85</v>
+        <v>162</v>
+      </c>
+      <c r="J4" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1820,31 +1868,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I5" t="s">
-        <v>164</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>163</v>
+      </c>
+      <c r="J5" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1852,31 +1900,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I6" t="s">
-        <v>165</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>164</v>
+      </c>
+      <c r="J6" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1884,31 +1932,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I7" t="s">
-        <v>166</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>165</v>
+      </c>
+      <c r="J7" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1916,31 +1964,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H8" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I8" t="s">
-        <v>167</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>166</v>
+      </c>
+      <c r="J8" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1948,31 +1996,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="I9" t="s">
-        <v>168</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>167</v>
+      </c>
+      <c r="J9" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1980,31 +2028,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F10" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I10" t="s">
-        <v>169</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>168</v>
+      </c>
+      <c r="J10" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2012,31 +2060,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F11" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="G11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I11" t="s">
-        <v>170</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>169</v>
+      </c>
+      <c r="J11" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2089,28 +2137,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D2" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E2" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="F2" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="G2" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="H2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I2" t="s">
-        <v>234</v>
-      </c>
-      <c r="J2">
-        <v>0.5</v>
+        <v>237</v>
+      </c>
+      <c r="J2" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2118,31 +2166,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D3" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E3" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F3" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="G3" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H3" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="I3" t="s">
-        <v>235</v>
-      </c>
-      <c r="J3">
-        <v>0.5</v>
+        <v>238</v>
+      </c>
+      <c r="J3" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2150,31 +2198,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="C4" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="D4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="E4" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F4" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="G4" t="s">
-        <v>216</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="I4" t="s">
-        <v>236</v>
-      </c>
-      <c r="J4">
-        <v>0.7231182795698925</v>
+        <v>239</v>
+      </c>
+      <c r="J4" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2182,31 +2230,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>181</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="E5" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F5" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="G5" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H5" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="I5" t="s">
-        <v>237</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>240</v>
+      </c>
+      <c r="J5" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2214,31 +2262,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="C6" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="D6" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E6" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F6" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="G6" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="H6" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="I6" t="s">
-        <v>238</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>241</v>
+      </c>
+      <c r="J6" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2246,31 +2294,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>174</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>182</v>
+        <v>99</v>
       </c>
       <c r="D7" t="s">
-        <v>191</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="G7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="I7" t="s">
-        <v>239</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>242</v>
+      </c>
+      <c r="J7" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2278,31 +2326,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>182</v>
       </c>
       <c r="C8" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D8" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E8" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="F8" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="G8" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H8" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="I8" t="s">
-        <v>240</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>243</v>
+      </c>
+      <c r="J8" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2310,31 +2358,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C9" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D9" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="E9" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F9" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="G9" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H9" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="I9" t="s">
-        <v>241</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>244</v>
+      </c>
+      <c r="J9" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2342,31 +2390,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>176</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D10" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>208</v>
       </c>
       <c r="F10" t="s">
-        <v>141</v>
+        <v>218</v>
       </c>
       <c r="G10" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
       <c r="H10" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="I10" t="s">
-        <v>242</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>245</v>
+      </c>
+      <c r="J10" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2374,31 +2422,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>177</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D11" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E11" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F11" t="s">
-        <v>213</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="H11" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="I11" t="s">
-        <v>243</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>246</v>
+      </c>
+      <c r="J11" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -2448,31 +2496,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>244</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>252</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E2" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="F2" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="G2" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="H2" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="I2" t="s">
-        <v>307</v>
-      </c>
-      <c r="J2">
-        <v>0.5</v>
+        <v>313</v>
+      </c>
+      <c r="J2" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2480,31 +2528,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>245</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="D3" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="E3" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="F3" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="G3" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="H3" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="I3" t="s">
-        <v>308</v>
-      </c>
-      <c r="J3">
-        <v>0.5</v>
+        <v>314</v>
+      </c>
+      <c r="J3" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2512,31 +2560,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>256</v>
       </c>
       <c r="C4" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="D4" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E4" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="F4" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="G4" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="H4" t="s">
-        <v>300</v>
+        <v>114</v>
       </c>
       <c r="I4" t="s">
-        <v>309</v>
-      </c>
-      <c r="J4">
-        <v>0.6919354838709677</v>
+        <v>193</v>
+      </c>
+      <c r="J4" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2544,31 +2592,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="C5" t="s">
-        <v>255</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="E5" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="F5" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="G5" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="H5" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="I5" t="s">
-        <v>310</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>315</v>
+      </c>
+      <c r="J5" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2576,31 +2624,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="C6" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D6" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E6" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="F6" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="G6" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H6" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="I6" t="s">
-        <v>311</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>316</v>
+      </c>
+      <c r="J6" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2608,31 +2656,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>248</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="E7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="F7" t="s">
-        <v>191</v>
+        <v>271</v>
       </c>
       <c r="G7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="H7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="I7" t="s">
-        <v>312</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>317</v>
+      </c>
+      <c r="J7" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2640,31 +2688,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="C8" t="s">
-        <v>258</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E8" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="F8" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="G8" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="H8" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="I8" t="s">
-        <v>313</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>318</v>
+      </c>
+      <c r="J8" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2672,31 +2720,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="C9" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="D9" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="E9" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="F9" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="G9" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="H9" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="I9" t="s">
-        <v>314</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>319</v>
+      </c>
+      <c r="J9" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2704,31 +2752,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>251</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="D10" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="E10" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="F10" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="G10" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="H10" t="s">
-        <v>219</v>
+        <v>311</v>
       </c>
       <c r="I10" t="s">
-        <v>176</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>320</v>
+      </c>
+      <c r="J10" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2736,31 +2784,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>259</v>
       </c>
       <c r="C11" t="s">
-        <v>261</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>195</v>
+        <v>275</v>
       </c>
       <c r="E11" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="F11" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="G11" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="H11" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="I11" t="s">
-        <v>315</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>321</v>
+      </c>
+      <c r="J11" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_33_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_33_1_replicas_SMOTE.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="329">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -97,922 +97,913 @@
     <t>0.998+/-0.0</t>
   </si>
   <si>
+    <t>0.798+/-0.0</t>
+  </si>
+  <si>
+    <t>0.606</t>
+  </si>
+  <si>
+    <t>0.996+/-0.0</t>
+  </si>
+  <si>
+    <t>0.719+/-0.013</t>
+  </si>
+  <si>
+    <t>0.287</t>
+  </si>
+  <si>
+    <t>1.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.978+/-0.005</t>
+  </si>
+  <si>
+    <t>0.645</t>
+  </si>
+  <si>
+    <t>0.003+/-0.0</t>
+  </si>
+  <si>
+    <t>0.644+/-0.002</t>
+  </si>
+  <si>
+    <t>0.642+/-0.0</t>
+  </si>
+  <si>
+    <t>0.588</t>
+  </si>
+  <si>
+    <t>0.632+/-0.002</t>
+  </si>
+  <si>
+    <t>0.63+/-0.013</t>
+  </si>
+  <si>
+    <t>0.28</t>
+  </si>
+  <si>
+    <t>0.69+/-0.003</t>
+  </si>
+  <si>
+    <t>0.689+/-0.014</t>
+  </si>
+  <si>
+    <t>0.667</t>
+  </si>
+  <si>
+    <t>0.312+/-0.038</t>
+  </si>
+  <si>
+    <t>0.596+/-0.002</t>
+  </si>
+  <si>
+    <t>0.595+/-0.0</t>
+  </si>
+  <si>
+    <t>0.444</t>
+  </si>
+  <si>
+    <t>0.566+/-0.001</t>
+  </si>
+  <si>
+    <t>0.565+/-0.01</t>
+  </si>
+  <si>
+    <t>0.234</t>
+  </si>
+  <si>
+    <t>0.824+/-0.003</t>
+  </si>
+  <si>
+    <t>0.823+/-0.015</t>
+  </si>
+  <si>
+    <t>0.773</t>
+  </si>
+  <si>
+    <t>0.007+/-0.001</t>
+  </si>
+  <si>
+    <t>0.592+/-0.004</t>
+  </si>
+  <si>
+    <t>0.591+/-0.0</t>
+  </si>
+  <si>
+    <t>0.541</t>
+  </si>
+  <si>
+    <t>0.583+/-0.003</t>
+  </si>
+  <si>
+    <t>0.582+/-0.011</t>
+  </si>
+  <si>
+    <t>0.244</t>
+  </si>
+  <si>
+    <t>0.647+/-0.009</t>
+  </si>
+  <si>
+    <t>0.645+/-0.018</t>
+  </si>
+  <si>
+    <t>0.608</t>
+  </si>
+  <si>
+    <t>0.008+/-0.001</t>
+  </si>
+  <si>
+    <t>0.816+/-0.009</t>
+  </si>
+  <si>
+    <t>0.757+/-0.0</t>
+  </si>
+  <si>
+    <t>0.638</t>
+  </si>
+  <si>
+    <t>0.799+/-0.021</t>
+  </si>
+  <si>
+    <t>0.738+/-0.022</t>
+  </si>
+  <si>
+    <t>0.304</t>
+  </si>
+  <si>
+    <t>0.848+/-0.034</t>
+  </si>
+  <si>
+    <t>0.8+/-0.037</t>
+  </si>
+  <si>
+    <t>0.616</t>
+  </si>
+  <si>
+    <t>4.633+/-0.643</t>
+  </si>
+  <si>
+    <t>0.758+/-0.004</t>
+  </si>
+  <si>
+    <t>0.715+/-0.0</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>0.774+/-0.011</t>
+  </si>
+  <si>
+    <t>0.726+/-0.016</t>
+  </si>
+  <si>
+    <t>0.316</t>
+  </si>
+  <si>
+    <t>0.73+/-0.024</t>
+  </si>
+  <si>
+    <t>0.692+/-0.019</t>
+  </si>
+  <si>
+    <t>0.461</t>
+  </si>
+  <si>
+    <t>0.149+/-0.014</t>
+  </si>
+  <si>
+    <t>0.751+/-0.003</t>
+  </si>
+  <si>
+    <t>0.713+/-0.0</t>
+  </si>
+  <si>
+    <t>0.688</t>
+  </si>
+  <si>
+    <t>0.766+/-0.014</t>
+  </si>
+  <si>
+    <t>0.723+/-0.019</t>
+  </si>
+  <si>
+    <t>0.314</t>
+  </si>
+  <si>
+    <t>0.725+/-0.028</t>
+  </si>
+  <si>
+    <t>0.693+/-0.018</t>
+  </si>
+  <si>
+    <t>0.2+/-0.006</t>
+  </si>
+  <si>
+    <t>0.753+/-0.001</t>
+  </si>
+  <si>
+    <t>0.729+/-0.0</t>
+  </si>
+  <si>
+    <t>0.657</t>
+  </si>
+  <si>
+    <t>0.729+/-0.003</t>
+  </si>
+  <si>
+    <t>0.706+/-0.011</t>
+  </si>
+  <si>
+    <t>0.322</t>
+  </si>
+  <si>
+    <t>0.807+/-0.004</t>
+  </si>
+  <si>
+    <t>0.784+/-0.016</t>
+  </si>
+  <si>
+    <t>0.632</t>
+  </si>
+  <si>
+    <t>34.719+/-0.441</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.817+/-0.0</t>
+  </si>
+  <si>
+    <t>0.634</t>
+  </si>
+  <si>
+    <t>0.736+/-0.011</t>
+  </si>
+  <si>
+    <t>0.232</t>
+  </si>
+  <si>
+    <t>0.988+/-0.004</t>
+  </si>
+  <si>
+    <t>0.624</t>
+  </si>
+  <si>
+    <t>0.659+/-0.002</t>
+  </si>
+  <si>
+    <t>0.656+/-0.0</t>
+  </si>
+  <si>
+    <t>0.604</t>
+  </si>
+  <si>
+    <t>0.648+/-0.002</t>
+  </si>
+  <si>
+    <t>0.645+/-0.01</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>0.694+/-0.003</t>
+  </si>
+  <si>
+    <t>0.693+/-0.023</t>
+  </si>
+  <si>
+    <t>0.353+/-0.062</t>
+  </si>
+  <si>
+    <t>0.599+/-0.002</t>
+  </si>
+  <si>
+    <t>0.597+/-0.0</t>
+  </si>
+  <si>
+    <t>0.452</t>
+  </si>
+  <si>
+    <t>0.571+/-0.001</t>
+  </si>
+  <si>
+    <t>0.57+/-0.011</t>
+  </si>
+  <si>
+    <t>0.183</t>
+  </si>
+  <si>
+    <t>0.802+/-0.003</t>
+  </si>
+  <si>
+    <t>0.8+/-0.013</t>
+  </si>
+  <si>
+    <t>0.763</t>
+  </si>
+  <si>
+    <t>0.603+/-0.002</t>
+  </si>
+  <si>
+    <t>0.601+/-0.0</t>
+  </si>
+  <si>
+    <t>0.555</t>
+  </si>
+  <si>
+    <t>0.592+/-0.002</t>
+  </si>
+  <si>
+    <t>0.591+/-0.016</t>
+  </si>
+  <si>
+    <t>0.194</t>
+  </si>
+  <si>
+    <t>0.658+/-0.003</t>
+  </si>
+  <si>
+    <t>0.657+/-0.019</t>
+  </si>
+  <si>
+    <t>0.01+/-0.001</t>
+  </si>
+  <si>
+    <t>0.848+/-0.011</t>
+  </si>
+  <si>
     <t>0.797+/-0.0</t>
   </si>
   <si>
-    <t>0.612</t>
-  </si>
-  <si>
-    <t>0.996+/-0.0</t>
-  </si>
-  <si>
-    <t>0.719+/-0.015</t>
-  </si>
-  <si>
-    <t>0.295</t>
-  </si>
-  <si>
-    <t>1.0+/-0.0</t>
-  </si>
-  <si>
-    <t>0.976+/-0.004</t>
-  </si>
-  <si>
-    <t>0.667</t>
-  </si>
-  <si>
-    <t>0.003+/-0.001</t>
-  </si>
-  <si>
-    <t>0.653+/-0.002</t>
-  </si>
-  <si>
-    <t>0.65+/-0.0</t>
-  </si>
-  <si>
-    <t>0.594</t>
-  </si>
-  <si>
-    <t>0.639+/-0.002</t>
-  </si>
-  <si>
-    <t>0.637+/-0.01</t>
-  </si>
-  <si>
-    <t>0.281</t>
-  </si>
-  <si>
-    <t>0.701+/-0.004</t>
-  </si>
-  <si>
-    <t>0.7+/-0.021</t>
-  </si>
-  <si>
-    <t>0.651</t>
-  </si>
-  <si>
-    <t>0.383+/-0.035</t>
-  </si>
-  <si>
-    <t>0.596+/-0.002</t>
-  </si>
-  <si>
-    <t>0.596+/-0.0</t>
-  </si>
-  <si>
-    <t>0.448</t>
-  </si>
-  <si>
-    <t>0.567+/-0.001</t>
-  </si>
-  <si>
-    <t>0.567+/-0.008</t>
-  </si>
-  <si>
-    <t>0.232</t>
-  </si>
-  <si>
-    <t>0.817+/-0.003</t>
-  </si>
-  <si>
-    <t>0.816+/-0.01</t>
-  </si>
-  <si>
-    <t>0.752</t>
-  </si>
-  <si>
-    <t>0.009+/-0.001</t>
-  </si>
-  <si>
-    <t>0.6+/-0.004</t>
-  </si>
-  <si>
-    <t>0.599+/-0.0</t>
-  </si>
-  <si>
-    <t>0.545</t>
-  </si>
-  <si>
-    <t>0.588+/-0.003</t>
-  </si>
-  <si>
-    <t>0.588+/-0.011</t>
-  </si>
-  <si>
-    <t>0.247</t>
-  </si>
-  <si>
-    <t>0.663+/-0.008</t>
-  </si>
-  <si>
-    <t>0.663+/-0.026</t>
-  </si>
-  <si>
-    <t>0.611</t>
-  </si>
-  <si>
-    <t>0.01+/-0.001</t>
-  </si>
-  <si>
-    <t>0.823+/-0.013</t>
-  </si>
-  <si>
-    <t>0.765+/-0.0</t>
-  </si>
-  <si>
-    <t>0.708</t>
-  </si>
-  <si>
-    <t>0.811+/-0.019</t>
-  </si>
-  <si>
-    <t>0.757+/-0.022</t>
+    <t>0.739</t>
+  </si>
+  <si>
+    <t>0.833+/-0.022</t>
+  </si>
+  <si>
+    <t>0.778+/-0.027</t>
+  </si>
+  <si>
+    <t>0.284</t>
+  </si>
+  <si>
+    <t>0.874+/-0.04</t>
+  </si>
+  <si>
+    <t>0.835+/-0.042</t>
+  </si>
+  <si>
+    <t>0.487</t>
+  </si>
+  <si>
+    <t>4.35+/-1.134</t>
+  </si>
+  <si>
+    <t>0.803+/-0.006</t>
+  </si>
+  <si>
+    <t>0.764+/-0.0</t>
+  </si>
+  <si>
+    <t>0.801</t>
+  </si>
+  <si>
+    <t>0.866+/-0.061</t>
+  </si>
+  <si>
+    <t>0.819+/-0.057</t>
+  </si>
+  <si>
+    <t>0.311</t>
+  </si>
+  <si>
+    <t>0.732+/-0.094</t>
+  </si>
+  <si>
+    <t>0.694+/-0.092</t>
+  </si>
+  <si>
+    <t>0.269</t>
+  </si>
+  <si>
+    <t>0.169+/-0.013</t>
+  </si>
+  <si>
+    <t>0.798+/-0.003</t>
+  </si>
+  <si>
+    <t>0.783+/-0.014</t>
+  </si>
+  <si>
+    <t>0.752+/-0.018</t>
+  </si>
+  <si>
+    <t>0.204</t>
+  </si>
+  <si>
+    <t>0.824+/-0.026</t>
+  </si>
+  <si>
+    <t>0.791+/-0.03</t>
+  </si>
+  <si>
+    <t>0.373</t>
+  </si>
+  <si>
+    <t>0.225+/-0.005</t>
+  </si>
+  <si>
+    <t>0.78+/-0.002</t>
+  </si>
+  <si>
+    <t>0.76+/-0.0</t>
+  </si>
+  <si>
+    <t>0.689</t>
+  </si>
+  <si>
+    <t>0.758+/-0.002</t>
+  </si>
+  <si>
+    <t>0.738+/-0.01</t>
+  </si>
+  <si>
+    <t>0.261</t>
+  </si>
+  <si>
+    <t>0.822+/-0.002</t>
+  </si>
+  <si>
+    <t>0.805+/-0.017</t>
+  </si>
+  <si>
+    <t>0.584</t>
+  </si>
+  <si>
+    <t>39.724+/-1.533</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.15+/-0.229</t>
+  </si>
+  <si>
+    <t>0.3+/-0.458</t>
+  </si>
+  <si>
+    <t>0.998+/-0.001</t>
+  </si>
+  <si>
+    <t>0.731+/-0.0</t>
+  </si>
+  <si>
+    <t>0.537</t>
+  </si>
+  <si>
+    <t>0.999+/-0.003</t>
+  </si>
+  <si>
+    <t>0.666+/-0.013</t>
+  </si>
+  <si>
+    <t>0.997+/-0.001</t>
+  </si>
+  <si>
+    <t>0.925+/-0.009</t>
+  </si>
+  <si>
+    <t>0.002+/-0.0</t>
+  </si>
+  <si>
+    <t>0.587+/-0.003</t>
+  </si>
+  <si>
+    <t>0.584+/-0.0</t>
+  </si>
+  <si>
+    <t>0.602</t>
+  </si>
+  <si>
+    <t>0.597+/-0.003</t>
+  </si>
+  <si>
+    <t>0.593+/-0.016</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>0.535+/-0.004</t>
+  </si>
+  <si>
+    <t>0.533+/-0.022</t>
+  </si>
+  <si>
+    <t>0.511</t>
+  </si>
+  <si>
+    <t>0.204+/-0.024</t>
+  </si>
+  <si>
+    <t>0.561+/-0.002</t>
+  </si>
+  <si>
+    <t>0.56+/-0.0</t>
+  </si>
+  <si>
+    <t>0.644</t>
+  </si>
+  <si>
+    <t>0.591+/-0.002</t>
+  </si>
+  <si>
+    <t>0.59+/-0.016</t>
+  </si>
+  <si>
+    <t>0.369</t>
+  </si>
+  <si>
+    <t>0.395+/-0.009</t>
+  </si>
+  <si>
+    <t>0.394+/-0.018</t>
+  </si>
+  <si>
+    <t>0.402</t>
+  </si>
+  <si>
+    <t>0.006+/-0.001</t>
+  </si>
+  <si>
+    <t>0.564+/-0.001</t>
+  </si>
+  <si>
+    <t>0.564+/-0.0</t>
+  </si>
+  <si>
+    <t>0.571+/-0.002</t>
+  </si>
+  <si>
+    <t>0.572+/-0.016</t>
+  </si>
+  <si>
+    <t>0.338</t>
+  </si>
+  <si>
+    <t>0.513+/-0.002</t>
+  </si>
+  <si>
+    <t>0.513+/-0.012</t>
+  </si>
+  <si>
+    <t>0.73+/-0.006</t>
+  </si>
+  <si>
+    <t>0.653+/-0.0</t>
+  </si>
+  <si>
+    <t>0.709+/-0.022</t>
+  </si>
+  <si>
+    <t>0.638+/-0.024</t>
+  </si>
+  <si>
+    <t>0.335</t>
+  </si>
+  <si>
+    <t>0.783+/-0.049</t>
+  </si>
+  <si>
+    <t>0.714+/-0.056</t>
+  </si>
+  <si>
+    <t>0.509</t>
+  </si>
+  <si>
+    <t>3.719+/-0.288</t>
+  </si>
+  <si>
+    <t>0.75+/-0.004</t>
+  </si>
+  <si>
+    <t>0.684+/-0.0</t>
+  </si>
+  <si>
+    <t>0.671</t>
+  </si>
+  <si>
+    <t>0.858+/-0.025</t>
+  </si>
+  <si>
+    <t>0.764+/-0.032</t>
+  </si>
+  <si>
+    <t>0.366</t>
+  </si>
+  <si>
+    <t>0.6+/-0.026</t>
+  </si>
+  <si>
+    <t>0.536+/-0.03</t>
+  </si>
+  <si>
+    <t>0.256</t>
+  </si>
+  <si>
+    <t>0.119+/-0.007</t>
+  </si>
+  <si>
+    <t>0.735+/-0.004</t>
+  </si>
+  <si>
+    <t>0.688+/-0.0</t>
+  </si>
+  <si>
+    <t>0.699</t>
+  </si>
+  <si>
+    <t>0.875+/-0.048</t>
+  </si>
+  <si>
+    <t>0.798+/-0.044</t>
+  </si>
+  <si>
+    <t>0.398</t>
+  </si>
+  <si>
+    <t>0.556+/-0.055</t>
+  </si>
+  <si>
+    <t>0.512+/-0.056</t>
+  </si>
+  <si>
+    <t>0.171</t>
+  </si>
+  <si>
+    <t>0.161+/-0.005</t>
+  </si>
+  <si>
+    <t>0.675+/-0.003</t>
+  </si>
+  <si>
+    <t>0.632+/-0.0</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>0.673+/-0.003</t>
+  </si>
+  <si>
+    <t>0.63+/-0.012</t>
+  </si>
+  <si>
+    <t>0.341</t>
+  </si>
+  <si>
+    <t>0.683+/-0.005</t>
+  </si>
+  <si>
+    <t>0.641+/-0.015</t>
+  </si>
+  <si>
+    <t>0.518</t>
+  </si>
+  <si>
+    <t>28.712+/-0.977</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.25+/-0.25</t>
+  </si>
+  <si>
+    <t>0.5+/-0.5</t>
+  </si>
+  <si>
+    <t>0.704+/-0.0</t>
+  </si>
+  <si>
+    <t>0.546</t>
+  </si>
+  <si>
+    <t>0.649+/-0.009</t>
+  </si>
+  <si>
+    <t>0.346</t>
+  </si>
+  <si>
+    <t>0.997+/-0.0</t>
+  </si>
+  <si>
+    <t>0.893+/-0.01</t>
+  </si>
+  <si>
+    <t>0.532</t>
+  </si>
+  <si>
+    <t>0.563+/-0.002</t>
+  </si>
+  <si>
+    <t>0.557+/-0.0</t>
+  </si>
+  <si>
+    <t>0.571</t>
+  </si>
+  <si>
+    <t>0.569+/-0.003</t>
+  </si>
+  <si>
+    <t>0.563+/-0.012</t>
   </si>
   <si>
     <t>0.356</t>
   </si>
   <si>
-    <t>0.844+/-0.056</t>
-  </si>
-  <si>
-    <t>0.785+/-0.055</t>
-  </si>
-  <si>
-    <t>0.557</t>
-  </si>
-  <si>
-    <t>5.458+/-0.97</t>
-  </si>
-  <si>
-    <t>0.779+/-0.003</t>
-  </si>
-  <si>
-    <t>0.735+/-0.0</t>
-  </si>
-  <si>
-    <t>0.747</t>
-  </si>
-  <si>
-    <t>0.835+/-0.061</t>
-  </si>
-  <si>
-    <t>0.783+/-0.058</t>
-  </si>
-  <si>
-    <t>0.353</t>
-  </si>
-  <si>
-    <t>0.712+/-0.091</t>
-  </si>
-  <si>
-    <t>0.671+/-0.101</t>
-  </si>
-  <si>
-    <t>0.307</t>
-  </si>
-  <si>
-    <t>0.201+/-0.005</t>
-  </si>
-  <si>
-    <t>0.771+/-0.006</t>
-  </si>
-  <si>
-    <t>0.73+/-0.0</t>
-  </si>
-  <si>
-    <t>0.69</t>
-  </si>
-  <si>
-    <t>0.783+/-0.029</t>
-  </si>
-  <si>
-    <t>0.741+/-0.022</t>
-  </si>
-  <si>
-    <t>0.754+/-0.055</t>
-  </si>
-  <si>
-    <t>0.712+/-0.057</t>
-  </si>
-  <si>
-    <t>0.427</t>
-  </si>
-  <si>
-    <t>0.285+/-0.005</t>
-  </si>
-  <si>
-    <t>0.766+/-0.002</t>
-  </si>
-  <si>
-    <t>0.741+/-0.0</t>
-  </si>
-  <si>
-    <t>0.674</t>
-  </si>
-  <si>
-    <t>0.742+/-0.003</t>
-  </si>
-  <si>
-    <t>0.718+/-0.013</t>
-  </si>
-  <si>
-    <t>0.336</t>
-  </si>
-  <si>
-    <t>0.818+/-0.004</t>
-  </si>
-  <si>
-    <t>0.795+/-0.015</t>
-  </si>
-  <si>
-    <t>0.632</t>
-  </si>
-  <si>
-    <t>43.004+/-2.961</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.82+/-0.0</t>
-  </si>
-  <si>
-    <t>0.644</t>
-  </si>
-  <si>
-    <t>0.74+/-0.011</t>
-  </si>
-  <si>
-    <t>0.245</t>
-  </si>
-  <si>
-    <t>0.988+/-0.004</t>
-  </si>
-  <si>
-    <t>0.659</t>
-  </si>
-  <si>
-    <t>0.003+/-0.0</t>
-  </si>
-  <si>
-    <t>0.665+/-0.001</t>
-  </si>
-  <si>
-    <t>0.664+/-0.0</t>
-  </si>
-  <si>
-    <t>0.609</t>
-  </si>
-  <si>
-    <t>0.654+/-0.001</t>
-  </si>
-  <si>
-    <t>0.654+/-0.011</t>
-  </si>
-  <si>
-    <t>0.221</t>
-  </si>
-  <si>
-    <t>0.698+/-0.003</t>
-  </si>
-  <si>
-    <t>0.698+/-0.015</t>
-  </si>
-  <si>
-    <t>0.638</t>
-  </si>
-  <si>
-    <t>0.508+/-0.049</t>
-  </si>
-  <si>
-    <t>0.604+/-0.002</t>
-  </si>
-  <si>
-    <t>0.603+/-0.0</t>
-  </si>
-  <si>
-    <t>0.455</t>
-  </si>
-  <si>
-    <t>0.575+/-0.001</t>
-  </si>
-  <si>
-    <t>0.574+/-0.011</t>
-  </si>
-  <si>
-    <t>0.183</t>
-  </si>
-  <si>
-    <t>0.803+/-0.004</t>
-  </si>
-  <si>
-    <t>0.803+/-0.012</t>
-  </si>
-  <si>
-    <t>0.76</t>
-  </si>
-  <si>
-    <t>0.01+/-0.0</t>
-  </si>
-  <si>
-    <t>0.607+/-0.001</t>
-  </si>
-  <si>
-    <t>0.607+/-0.0</t>
-  </si>
-  <si>
-    <t>0.559</t>
-  </si>
-  <si>
-    <t>0.597+/-0.001</t>
-  </si>
-  <si>
-    <t>0.597+/-0.014</t>
-  </si>
-  <si>
-    <t>0.195</t>
-  </si>
-  <si>
-    <t>0.662+/-0.002</t>
-  </si>
-  <si>
-    <t>0.663+/-0.017</t>
-  </si>
-  <si>
-    <t>0.62</t>
-  </si>
-  <si>
-    <t>0.853+/-0.009</t>
-  </si>
-  <si>
-    <t>0.801+/-0.0</t>
-  </si>
-  <si>
-    <t>0.722</t>
-  </si>
-  <si>
-    <t>0.826+/-0.019</t>
-  </si>
-  <si>
-    <t>0.772+/-0.017</t>
-  </si>
-  <si>
-    <t>0.261</t>
-  </si>
-  <si>
-    <t>0.895+/-0.022</t>
-  </si>
-  <si>
-    <t>0.854+/-0.025</t>
-  </si>
-  <si>
-    <t>0.47</t>
-  </si>
-  <si>
-    <t>5.384+/-1.331</t>
-  </si>
-  <si>
-    <t>0.814+/-0.004</t>
-  </si>
-  <si>
-    <t>0.777+/-0.0</t>
-  </si>
-  <si>
-    <t>0.663</t>
-  </si>
-  <si>
-    <t>0.784+/-0.011</t>
-  </si>
-  <si>
-    <t>0.751+/-0.017</t>
-  </si>
-  <si>
-    <t>0.223</t>
-  </si>
-  <si>
-    <t>0.867+/-0.026</t>
-  </si>
-  <si>
-    <t>0.83+/-0.029</t>
-  </si>
-  <si>
-    <t>0.502</t>
-  </si>
-  <si>
-    <t>0.184+/-0.011</t>
-  </si>
-  <si>
-    <t>0.807+/-0.004</t>
-  </si>
-  <si>
-    <t>0.661</t>
-  </si>
-  <si>
-    <t>0.777+/-0.01</t>
-  </si>
-  <si>
-    <t>0.75+/-0.017</t>
-  </si>
-  <si>
-    <t>0.22</t>
-  </si>
-  <si>
-    <t>0.864+/-0.021</t>
-  </si>
-  <si>
-    <t>0.831+/-0.027</t>
-  </si>
-  <si>
-    <t>0.495</t>
-  </si>
-  <si>
-    <t>0.249+/-0.015</t>
-  </si>
-  <si>
-    <t>0.787+/-0.002</t>
-  </si>
-  <si>
-    <t>0.766+/-0.0</t>
-  </si>
-  <si>
-    <t>0.679</t>
-  </si>
-  <si>
-    <t>0.759+/-0.002</t>
-  </si>
-  <si>
-    <t>0.74+/-0.009</t>
-  </si>
-  <si>
-    <t>0.252</t>
-  </si>
-  <si>
-    <t>0.84+/-0.004</t>
-  </si>
-  <si>
-    <t>0.821+/-0.018</t>
-  </si>
-  <si>
-    <t>0.577</t>
-  </si>
-  <si>
-    <t>50.094+/-4.651</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.15+/-0.229</t>
-  </si>
-  <si>
-    <t>0.3+/-0.458</t>
-  </si>
-  <si>
-    <t>0.999+/-0.0</t>
-  </si>
-  <si>
-    <t>0.727+/-0.0</t>
-  </si>
-  <si>
-    <t>0.564</t>
-  </si>
-  <si>
-    <t>0.663+/-0.012</t>
-  </si>
-  <si>
-    <t>0.997+/-0.0</t>
-  </si>
-  <si>
-    <t>0.923+/-0.01</t>
-  </si>
-  <si>
-    <t>0.586</t>
-  </si>
-  <si>
-    <t>0.002+/-0.0</t>
-  </si>
-  <si>
-    <t>0.585+/-0.002</t>
-  </si>
-  <si>
-    <t>0.582+/-0.0</t>
-  </si>
-  <si>
-    <t>0.604</t>
-  </si>
-  <si>
-    <t>0.594+/-0.002</t>
-  </si>
-  <si>
-    <t>0.592+/-0.013</t>
-  </si>
-  <si>
-    <t>0.535+/-0.003</t>
-  </si>
-  <si>
-    <t>0.531+/-0.018</t>
-  </si>
-  <si>
-    <t>0.532</t>
-  </si>
-  <si>
-    <t>0.215+/-0.025</t>
-  </si>
-  <si>
-    <t>0.563+/-0.002</t>
-  </si>
-  <si>
-    <t>0.561+/-0.0</t>
-  </si>
-  <si>
-    <t>0.642</t>
-  </si>
-  <si>
-    <t>0.591+/-0.002</t>
-  </si>
-  <si>
-    <t>0.588+/-0.014</t>
-  </si>
-  <si>
-    <t>0.37</t>
-  </si>
-  <si>
-    <t>0.411+/-0.013</t>
-  </si>
-  <si>
-    <t>0.408+/-0.028</t>
-  </si>
-  <si>
-    <t>0.419</t>
-  </si>
-  <si>
-    <t>0.006+/-0.001</t>
-  </si>
-  <si>
-    <t>0.564+/-0.001</t>
-  </si>
-  <si>
-    <t>0.563+/-0.0</t>
-  </si>
-  <si>
-    <t>0.589</t>
-  </si>
-  <si>
-    <t>0.57+/-0.002</t>
-  </si>
-  <si>
-    <t>0.569+/-0.012</t>
+    <t>0.517+/-0.004</t>
+  </si>
+  <si>
+    <t>0.512+/-0.014</t>
+  </si>
+  <si>
+    <t>0.485</t>
+  </si>
+  <si>
+    <t>0.172+/-0.013</t>
+  </si>
+  <si>
+    <t>0.553+/-0.002</t>
+  </si>
+  <si>
+    <t>0.553+/-0.0</t>
+  </si>
+  <si>
+    <t>0.574+/-0.003</t>
+  </si>
+  <si>
+    <t>0.574+/-0.021</t>
+  </si>
+  <si>
+    <t>0.386</t>
+  </si>
+  <si>
+    <t>0.412+/-0.013</t>
+  </si>
+  <si>
+    <t>0.415+/-0.025</t>
+  </si>
+  <si>
+    <t>0.421</t>
+  </si>
+  <si>
+    <t>0.005+/-0.001</t>
+  </si>
+  <si>
+    <t>0.548+/-0.002</t>
+  </si>
+  <si>
+    <t>0.548+/-0.0</t>
+  </si>
+  <si>
+    <t>0.572</t>
+  </si>
+  <si>
+    <t>0.552+/-0.016</t>
+  </si>
+  <si>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>0.506+/-0.003</t>
+  </si>
+  <si>
+    <t>0.504+/-0.022</t>
+  </si>
+  <si>
+    <t>0.501</t>
+  </si>
+  <si>
+    <t>0.723+/-0.012</t>
+  </si>
+  <si>
+    <t>0.622+/-0.0</t>
+  </si>
+  <si>
+    <t>0.576</t>
+  </si>
+  <si>
+    <t>0.717+/-0.024</t>
+  </si>
+  <si>
+    <t>0.615+/-0.015</t>
+  </si>
+  <si>
+    <t>0.344</t>
+  </si>
+  <si>
+    <t>0.742+/-0.06</t>
+  </si>
+  <si>
+    <t>0.655+/-0.073</t>
+  </si>
+  <si>
+    <t>0.415</t>
+  </si>
+  <si>
+    <t>3.034+/-0.826</t>
+  </si>
+  <si>
+    <t>0.728+/-0.006</t>
+  </si>
+  <si>
+    <t>0.662+/-0.0</t>
+  </si>
+  <si>
+    <t>0.587</t>
+  </si>
+  <si>
+    <t>0.735+/-0.013</t>
+  </si>
+  <si>
+    <t>0.668+/-0.018</t>
+  </si>
+  <si>
+    <t>0.348</t>
+  </si>
+  <si>
+    <t>0.713+/-0.021</t>
+  </si>
+  <si>
+    <t>0.647+/-0.02</t>
+  </si>
+  <si>
+    <t>0.391</t>
+  </si>
+  <si>
+    <t>0.108+/-0.007</t>
+  </si>
+  <si>
+    <t>0.718+/-0.005</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.734+/-0.014</t>
+  </si>
+  <si>
+    <t>0.675+/-0.025</t>
+  </si>
+  <si>
+    <t>0.686+/-0.027</t>
+  </si>
+  <si>
+    <t>0.629+/-0.03</t>
   </si>
   <si>
     <t>0.34</t>
   </si>
   <si>
-    <t>0.516+/-0.002</t>
-  </si>
-  <si>
-    <t>0.516+/-0.017</t>
-  </si>
-  <si>
-    <t>0.517</t>
-  </si>
-  <si>
-    <t>0.741+/-0.011</t>
-  </si>
-  <si>
-    <t>0.653+/-0.0</t>
-  </si>
-  <si>
-    <t>0.724+/-0.011</t>
-  </si>
-  <si>
-    <t>0.638+/-0.011</t>
-  </si>
-  <si>
-    <t>0.326</t>
-  </si>
-  <si>
-    <t>0.78+/-0.027</t>
-  </si>
-  <si>
-    <t>0.705+/-0.033</t>
-  </si>
-  <si>
-    <t>4.983+/-0.794</t>
-  </si>
-  <si>
-    <t>0.758+/-0.005</t>
-  </si>
-  <si>
-    <t>0.686+/-0.0</t>
-  </si>
-  <si>
-    <t>0.694</t>
-  </si>
-  <si>
-    <t>0.831+/-0.065</t>
-  </si>
-  <si>
-    <t>0.738+/-0.053</t>
-  </si>
-  <si>
-    <t>0.407</t>
-  </si>
-  <si>
-    <t>0.664+/-0.079</t>
-  </si>
-  <si>
-    <t>0.594+/-0.068</t>
-  </si>
-  <si>
-    <t>0.229</t>
-  </si>
-  <si>
-    <t>0.168+/-0.006</t>
-  </si>
-  <si>
-    <t>0.743+/-0.007</t>
-  </si>
-  <si>
-    <t>0.688+/-0.0</t>
-  </si>
-  <si>
-    <t>0.629</t>
-  </si>
-  <si>
-    <t>0.807+/-0.069</t>
-  </si>
-  <si>
-    <t>0.738+/-0.059</t>
-  </si>
-  <si>
-    <t>0.343</t>
-  </si>
-  <si>
-    <t>0.659+/-0.085</t>
-  </si>
-  <si>
-    <t>0.604+/-0.086</t>
-  </si>
-  <si>
-    <t>0.373</t>
-  </si>
-  <si>
-    <t>0.247+/-0.005</t>
-  </si>
-  <si>
-    <t>0.677+/-0.003</t>
-  </si>
-  <si>
-    <t>0.635+/-0.0</t>
-  </si>
-  <si>
-    <t>0.59</t>
+    <t>0.145+/-0.006</t>
+  </si>
+  <si>
+    <t>0.669+/-0.002</t>
+  </si>
+  <si>
+    <t>0.618+/-0.0</t>
+  </si>
+  <si>
+    <t>0.591</t>
   </si>
   <si>
     <t>0.667+/-0.003</t>
   </si>
   <si>
-    <t>0.628+/-0.015</t>
-  </si>
-  <si>
-    <t>0.344</t>
-  </si>
-  <si>
-    <t>0.706+/-0.01</t>
-  </si>
-  <si>
-    <t>0.667+/-0.02</t>
-  </si>
-  <si>
-    <t>41.855+/-3.145</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.25+/-0.25</t>
-  </si>
-  <si>
-    <t>0.5+/-0.5</t>
-  </si>
-  <si>
-    <t>0.0+/-0.0</t>
-  </si>
-  <si>
-    <t>0.701+/-0.0</t>
-  </si>
-  <si>
-    <t>0.531</t>
-  </si>
-  <si>
-    <t>0.646+/-0.009</t>
-  </si>
-  <si>
-    <t>0.339</t>
-  </si>
-  <si>
-    <t>0.89+/-0.016</t>
-  </si>
-  <si>
-    <t>0.551</t>
-  </si>
-  <si>
-    <t>0.568+/-0.003</t>
-  </si>
-  <si>
-    <t>0.562+/-0.0</t>
-  </si>
-  <si>
-    <t>0.581</t>
-  </si>
-  <si>
-    <t>0.574+/-0.003</t>
-  </si>
-  <si>
-    <t>0.567+/-0.011</t>
-  </si>
-  <si>
-    <t>0.367</t>
-  </si>
-  <si>
-    <t>0.529+/-0.006</t>
-  </si>
-  <si>
-    <t>0.521+/-0.023</t>
-  </si>
-  <si>
-    <t>0.497</t>
-  </si>
-  <si>
-    <t>0.227+/-0.017</t>
-  </si>
-  <si>
-    <t>0.552+/-0.002</t>
-  </si>
-  <si>
-    <t>0.55+/-0.0</t>
-  </si>
-  <si>
-    <t>0.616</t>
-  </si>
-  <si>
-    <t>0.571+/-0.002</t>
-  </si>
-  <si>
-    <t>0.568+/-0.017</t>
-  </si>
-  <si>
-    <t>0.39</t>
-  </si>
-  <si>
-    <t>0.422+/-0.015</t>
-  </si>
-  <si>
-    <t>0.419+/-0.024</t>
-  </si>
-  <si>
-    <t>0.438</t>
-  </si>
-  <si>
-    <t>0.548+/-0.002</t>
-  </si>
-  <si>
-    <t>0.548+/-0.0</t>
-  </si>
-  <si>
-    <t>0.58</t>
-  </si>
-  <si>
-    <t>0.553+/-0.003</t>
-  </si>
-  <si>
-    <t>0.553+/-0.014</t>
-  </si>
-  <si>
-    <t>0.503+/-0.004</t>
-  </si>
-  <si>
-    <t>0.501+/-0.016</t>
-  </si>
-  <si>
-    <t>0.501</t>
-  </si>
-  <si>
-    <t>0.008+/-0.001</t>
-  </si>
-  <si>
-    <t>0.72+/-0.015</t>
-  </si>
-  <si>
-    <t>0.626+/-0.0</t>
-  </si>
-  <si>
-    <t>0.524</t>
-  </si>
-  <si>
-    <t>0.701+/-0.022</t>
-  </si>
-  <si>
-    <t>0.613+/-0.021</t>
-  </si>
-  <si>
-    <t>0.348</t>
-  </si>
-  <si>
-    <t>0.77+/-0.046</t>
-  </si>
-  <si>
-    <t>0.689+/-0.033</t>
-  </si>
-  <si>
-    <t>0.628</t>
-  </si>
-  <si>
-    <t>3.786+/-0.966</t>
-  </si>
-  <si>
-    <t>0.729+/-0.006</t>
-  </si>
-  <si>
-    <t>0.663+/-0.0</t>
-  </si>
-  <si>
-    <t>0.777+/-0.056</t>
-  </si>
-  <si>
-    <t>0.7+/-0.058</t>
-  </si>
-  <si>
-    <t>0.361</t>
-  </si>
-  <si>
-    <t>0.66+/-0.086</t>
-  </si>
-  <si>
-    <t>0.595+/-0.08</t>
-  </si>
-  <si>
-    <t>0.351</t>
-  </si>
-  <si>
-    <t>0.121+/-0.007</t>
-  </si>
-  <si>
-    <t>0.718+/-0.006</t>
-  </si>
-  <si>
-    <t>0.67+/-0.0</t>
-  </si>
-  <si>
-    <t>0.756+/-0.047</t>
-  </si>
-  <si>
-    <t>0.7+/-0.047</t>
-  </si>
-  <si>
-    <t>0.36</t>
-  </si>
-  <si>
-    <t>0.655+/-0.065</t>
-  </si>
-  <si>
-    <t>0.608+/-0.065</t>
-  </si>
-  <si>
-    <t>0.365</t>
-  </si>
-  <si>
-    <t>0.166+/-0.009</t>
-  </si>
-  <si>
-    <t>0.665+/-0.003</t>
-  </si>
-  <si>
-    <t>0.617+/-0.0</t>
-  </si>
-  <si>
-    <t>0.582</t>
-  </si>
-  <si>
-    <t>0.658+/-0.003</t>
-  </si>
-  <si>
-    <t>0.612+/-0.011</t>
-  </si>
-  <si>
-    <t>0.372</t>
-  </si>
-  <si>
-    <t>0.686+/-0.006</t>
-  </si>
-  <si>
-    <t>0.637+/-0.023</t>
-  </si>
-  <si>
-    <t>0.515</t>
-  </si>
-  <si>
-    <t>30.803+/-0.559</t>
+    <t>0.615+/-0.011</t>
+  </si>
+  <si>
+    <t>0.379</t>
+  </si>
+  <si>
+    <t>0.676+/-0.007</t>
+  </si>
+  <si>
+    <t>0.627+/-0.021</t>
+  </si>
+  <si>
+    <t>0.513</t>
+  </si>
+  <si>
+    <t>25.673+/-0.481</t>
   </si>
 </sst>
 </file>
@@ -1591,7 +1582,7 @@
         <v>80</v>
       </c>
       <c r="I7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
         <v>99</v>
@@ -1623,7 +1614,7 @@
         <v>81</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="J8" t="s">
         <v>100</v>
@@ -1655,7 +1646,7 @@
         <v>82</v>
       </c>
       <c r="I9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="J9" t="s">
         <v>101</v>
@@ -1687,7 +1678,7 @@
         <v>83</v>
       </c>
       <c r="I10" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="J10" t="s">
         <v>102</v>
@@ -1781,22 +1772,22 @@
         <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H2" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I2" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="J2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1807,28 +1798,28 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
         <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="I3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1839,28 +1830,28 @@
         <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s">
         <v>114</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="I4" t="s">
-        <v>162</v>
+        <v>87</v>
       </c>
       <c r="J4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1877,22 +1868,22 @@
         <v>115</v>
       </c>
       <c r="E5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="J5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1903,28 +1894,28 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D6" t="s">
         <v>116</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="J6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1935,28 +1926,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s">
         <v>117</v>
       </c>
       <c r="E7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="I7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="J7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1973,22 +1964,22 @@
         <v>118</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="J8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1999,28 +1990,28 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D9" t="s">
         <v>119</v>
       </c>
       <c r="E9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="I9" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="J9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2031,28 +2022,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F10" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="G10" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I10" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="J10" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2060,31 +2051,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="F11" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H11" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="I11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2137,28 +2128,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="I2" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2169,28 +2160,28 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D3" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="H3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="J3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2198,31 +2189,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F4" t="s">
-        <v>212</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>57</v>
+        <v>175</v>
       </c>
       <c r="H4" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="J4" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2230,31 +2221,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>183</v>
       </c>
       <c r="D5" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E5" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="H5" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I5" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="J5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2262,31 +2253,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="H6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="I6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2297,28 +2288,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>154</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>193</v>
       </c>
       <c r="E7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="G7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="I7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="J7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2326,31 +2317,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C8" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G8" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H8" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="I8" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="J8" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2358,31 +2349,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F9" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G9" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="H9" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="I9" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="J9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2393,28 +2384,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="D10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E10" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F10" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
       <c r="G10" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="H10" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="I10" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="J10" t="s">
-        <v>198</v>
+        <v>252</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2422,31 +2413,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E11" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H11" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I11" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="J11" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -2502,25 +2493,25 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="I2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="J2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2531,28 +2522,28 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="I3" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="J3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2560,31 +2551,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C4" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D4" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E4" t="s">
-        <v>278</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G4" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H4" t="s">
-        <v>114</v>
+        <v>303</v>
       </c>
       <c r="I4" t="s">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="J4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2592,31 +2583,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F5" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G5" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H5" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="I5" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J5" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2624,31 +2615,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="I6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="J6" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2659,28 +2650,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D7" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F7" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="G7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="I7" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="J7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2688,31 +2679,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>261</v>
       </c>
       <c r="D8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E8" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F8" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G8" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="H8" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="I8" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="J8" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2720,31 +2711,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E9" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G9" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H9" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="I9" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="J9" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2755,28 +2746,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D10" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E10" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G10" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="H10" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="I10" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="J10" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2784,31 +2775,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>259</v>
+        <v>105</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="D11" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E11" t="s">
-        <v>209</v>
+        <v>282</v>
       </c>
       <c r="F11" t="s">
-        <v>293</v>
+        <v>54</v>
       </c>
       <c r="G11" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="I11" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="J11" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_33_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_results_Date_threshold_33_1_replicas_SMOTE.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="429">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -73,22 +73,34 @@
     <t>Recall Test</t>
   </si>
   <si>
+    <t>AUC - Train</t>
+  </si>
+  <si>
+    <t>AUC - Validation</t>
+  </si>
+  <si>
+    <t>AUC - Test</t>
+  </si>
+  <si>
     <t>Time</t>
   </si>
   <si>
     <t>0.5+/-0.0</t>
   </si>
   <si>
+    <t>0.799+/-0.0</t>
+  </si>
+  <si>
     <t>0.798</t>
   </si>
   <si>
-    <t>0.05+/-0.15</t>
+    <t>0.0+/-0.0</t>
   </si>
   <si>
     <t>0.0</t>
   </si>
   <si>
-    <t>0.1+/-0.3</t>
+    <t>0.5</t>
   </si>
   <si>
     <t>0.001+/-0.0</t>
@@ -97,913 +109,1201 @@
     <t>0.998+/-0.0</t>
   </si>
   <si>
-    <t>0.798+/-0.0</t>
-  </si>
-  <si>
-    <t>0.606</t>
+    <t>0.632+/-0.0</t>
+  </si>
+  <si>
+    <t>0.796</t>
   </si>
   <si>
     <t>0.996+/-0.0</t>
   </si>
   <si>
-    <t>0.719+/-0.013</t>
-  </si>
-  <si>
-    <t>0.287</t>
+    <t>0.302+/-0.019</t>
+  </si>
+  <si>
+    <t>0.478</t>
   </si>
   <si>
     <t>1.0+/-0.0</t>
   </si>
   <si>
-    <t>0.978+/-0.005</t>
-  </si>
-  <si>
-    <t>0.645</t>
-  </si>
-  <si>
-    <t>0.003+/-0.0</t>
-  </si>
-  <si>
-    <t>0.644+/-0.002</t>
-  </si>
-  <si>
-    <t>0.642+/-0.0</t>
-  </si>
-  <si>
-    <t>0.588</t>
-  </si>
-  <si>
-    <t>0.632+/-0.002</t>
-  </si>
-  <si>
-    <t>0.63+/-0.013</t>
-  </si>
-  <si>
-    <t>0.28</t>
-  </si>
-  <si>
-    <t>0.69+/-0.003</t>
-  </si>
-  <si>
-    <t>0.689+/-0.014</t>
-  </si>
-  <si>
-    <t>0.667</t>
-  </si>
-  <si>
-    <t>0.312+/-0.038</t>
-  </si>
-  <si>
-    <t>0.596+/-0.002</t>
-  </si>
-  <si>
-    <t>0.595+/-0.0</t>
-  </si>
-  <si>
-    <t>0.444</t>
-  </si>
-  <si>
-    <t>0.566+/-0.001</t>
-  </si>
-  <si>
-    <t>0.565+/-0.01</t>
+    <t>0.626+/-0.033</t>
+  </si>
+  <si>
+    <t>0.147</t>
+  </si>
+  <si>
+    <t>0.999+/-0.001</t>
+  </si>
+  <si>
+    <t>0.685+/-0.03</t>
+  </si>
+  <si>
+    <t>0.684</t>
+  </si>
+  <si>
+    <t>0.006+/-0.0</t>
+  </si>
+  <si>
+    <t>0.65+/-0.003</t>
+  </si>
+  <si>
+    <t>0.612+/-0.0</t>
+  </si>
+  <si>
+    <t>0.797</t>
+  </si>
+  <si>
+    <t>0.636+/-0.003</t>
+  </si>
+  <si>
+    <t>0.296+/-0.012</t>
+  </si>
+  <si>
+    <t>0.477</t>
+  </si>
+  <si>
+    <t>0.701+/-0.006</t>
+  </si>
+  <si>
+    <t>0.673+/-0.048</t>
+  </si>
+  <si>
+    <t>0.056</t>
+  </si>
+  <si>
+    <t>0.709+/-0.002</t>
+  </si>
+  <si>
+    <t>0.692+/-0.021</t>
+  </si>
+  <si>
+    <t>0.673</t>
+  </si>
+  <si>
+    <t>0.39+/-0.066</t>
+  </si>
+  <si>
+    <t>0.596+/-0.004</t>
+  </si>
+  <si>
+    <t>0.458+/-0.0</t>
+  </si>
+  <si>
+    <t>0.537</t>
+  </si>
+  <si>
+    <t>0.566+/-0.003</t>
+  </si>
+  <si>
+    <t>0.244+/-0.008</t>
+  </si>
+  <si>
+    <t>0.247</t>
+  </si>
+  <si>
+    <t>0.823+/-0.006</t>
+  </si>
+  <si>
+    <t>0.804+/-0.032</t>
+  </si>
+  <si>
+    <t>0.632</t>
+  </si>
+  <si>
+    <t>0.666+/-0.005</t>
+  </si>
+  <si>
+    <t>0.656+/-0.023</t>
+  </si>
+  <si>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>0.012+/-0.002</t>
+  </si>
+  <si>
+    <t>0.56+/-0.0</t>
+  </si>
+  <si>
+    <t>0.679</t>
+  </si>
+  <si>
+    <t>0.586+/-0.003</t>
+  </si>
+  <si>
+    <t>0.262+/-0.01</t>
+  </si>
+  <si>
+    <t>0.282</t>
+  </si>
+  <si>
+    <t>0.657+/-0.009</t>
+  </si>
+  <si>
+    <t>0.651+/-0.035</t>
+  </si>
+  <si>
+    <t>0.384</t>
+  </si>
+  <si>
+    <t>0.644+/-0.003</t>
+  </si>
+  <si>
+    <t>0.635+/-0.023</t>
+  </si>
+  <si>
+    <t>0.602</t>
+  </si>
+  <si>
+    <t>0.017+/-0.005</t>
+  </si>
+  <si>
+    <t>0.824+/-0.013</t>
+  </si>
+  <si>
+    <t>0.701+/-0.0</t>
+  </si>
+  <si>
+    <t>0.783</t>
+  </si>
+  <si>
+    <t>0.809+/-0.018</t>
+  </si>
+  <si>
+    <t>0.346+/-0.018</t>
+  </si>
+  <si>
+    <t>0.449</t>
+  </si>
+  <si>
+    <t>0.849+/-0.035</t>
+  </si>
+  <si>
+    <t>0.546+/-0.066</t>
+  </si>
+  <si>
+    <t>0.325</t>
+  </si>
+  <si>
+    <t>0.908+/-0.011</t>
+  </si>
+  <si>
+    <t>0.705+/-0.025</t>
+  </si>
+  <si>
+    <t>0.731</t>
+  </si>
+  <si>
+    <t>13.155+/-3.527</t>
+  </si>
+  <si>
+    <t>0.773+/-0.006</t>
+  </si>
+  <si>
+    <t>0.687+/-0.0</t>
+  </si>
+  <si>
+    <t>0.794</t>
+  </si>
+  <si>
+    <t>0.773+/-0.016</t>
+  </si>
+  <si>
+    <t>0.335+/-0.032</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>0.775+/-0.03</t>
+  </si>
+  <si>
+    <t>0.557+/-0.047</t>
+  </si>
+  <si>
+    <t>0.168</t>
+  </si>
+  <si>
+    <t>0.867+/-0.004</t>
+  </si>
+  <si>
+    <t>0.692+/-0.028</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>0.239+/-0.024</t>
+  </si>
+  <si>
+    <t>0.757+/-0.006</t>
+  </si>
+  <si>
+    <t>0.671+/-0.0</t>
+  </si>
+  <si>
+    <t>0.786</t>
+  </si>
+  <si>
+    <t>0.745+/-0.029</t>
+  </si>
+  <si>
+    <t>0.328+/-0.031</t>
+  </si>
+  <si>
+    <t>0.411</t>
+  </si>
+  <si>
+    <t>0.788+/-0.053</t>
+  </si>
+  <si>
+    <t>0.59+/-0.077</t>
+  </si>
+  <si>
+    <t>0.141</t>
+  </si>
+  <si>
+    <t>0.857+/-0.005</t>
+  </si>
+  <si>
+    <t>0.7+/-0.026</t>
+  </si>
+  <si>
+    <t>0.654</t>
+  </si>
+  <si>
+    <t>0.313+/-0.012</t>
+  </si>
+  <si>
+    <t>0.759+/-0.003</t>
+  </si>
+  <si>
+    <t>0.676+/-0.0</t>
+  </si>
+  <si>
+    <t>0.801</t>
+  </si>
+  <si>
+    <t>0.736+/-0.003</t>
+  </si>
+  <si>
+    <t>0.339+/-0.023</t>
+  </si>
+  <si>
+    <t>0.543</t>
+  </si>
+  <si>
+    <t>0.809+/-0.01</t>
+  </si>
+  <si>
+    <t>0.643+/-0.048</t>
+  </si>
+  <si>
+    <t>0.067</t>
+  </si>
+  <si>
+    <t>0.846+/-0.002</t>
+  </si>
+  <si>
+    <t>0.725+/-0.026</t>
+  </si>
+  <si>
+    <t>0.686</t>
+  </si>
+  <si>
+    <t>57.277+/-1.756</t>
+  </si>
+  <si>
+    <t>0.85+/-0.0</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.002+/-0.002</t>
+  </si>
+  <si>
+    <t>0.65+/-0.0</t>
+  </si>
+  <si>
+    <t>0.845</t>
+  </si>
+  <si>
+    <t>0.245+/-0.017</t>
+  </si>
+  <si>
+    <t>0.442</t>
+  </si>
+  <si>
+    <t>0.639+/-0.046</t>
+  </si>
+  <si>
+    <t>0.122</t>
+  </si>
+  <si>
+    <t>0.693+/-0.029</t>
+  </si>
+  <si>
+    <t>0.693</t>
+  </si>
+  <si>
+    <t>0.007+/-0.001</t>
+  </si>
+  <si>
+    <t>0.661+/-0.003</t>
+  </si>
+  <si>
+    <t>0.631+/-0.0</t>
+  </si>
+  <si>
+    <t>0.843</t>
+  </si>
+  <si>
+    <t>0.652+/-0.004</t>
+  </si>
+  <si>
+    <t>0.237+/-0.008</t>
+  </si>
+  <si>
+    <t>0.276</t>
+  </si>
+  <si>
+    <t>0.692+/-0.005</t>
+  </si>
+  <si>
+    <t>0.661+/-0.033</t>
+  </si>
+  <si>
+    <t>0.029</t>
+  </si>
+  <si>
+    <t>0.726+/-0.003</t>
+  </si>
+  <si>
+    <t>0.705+/-0.02</t>
+  </si>
+  <si>
+    <t>0.691</t>
+  </si>
+  <si>
+    <t>0.589+/-0.073</t>
+  </si>
+  <si>
+    <t>0.598+/-0.004</t>
+  </si>
+  <si>
+    <t>0.452+/-0.0</t>
+  </si>
+  <si>
+    <t>0.648</t>
+  </si>
+  <si>
+    <t>0.57+/-0.003</t>
+  </si>
+  <si>
+    <t>0.185+/-0.011</t>
+  </si>
+  <si>
+    <t>0.218</t>
+  </si>
+  <si>
+    <t>0.799+/-0.01</t>
+  </si>
+  <si>
+    <t>0.779+/-0.032</t>
+  </si>
+  <si>
+    <t>0.52</t>
+  </si>
+  <si>
+    <t>0.674+/-0.003</t>
+  </si>
+  <si>
+    <t>0.663+/-0.027</t>
+  </si>
+  <si>
+    <t>0.638</t>
+  </si>
+  <si>
+    <t>0.021+/-0.01</t>
+  </si>
+  <si>
+    <t>0.606+/-0.004</t>
+  </si>
+  <si>
+    <t>0.563+/-0.0</t>
+  </si>
+  <si>
+    <t>0.726</t>
+  </si>
+  <si>
+    <t>0.595+/-0.004</t>
+  </si>
+  <si>
+    <t>0.2+/-0.011</t>
   </si>
   <si>
     <t>0.234</t>
   </si>
   <si>
-    <t>0.824+/-0.003</t>
-  </si>
-  <si>
-    <t>0.823+/-0.015</t>
-  </si>
-  <si>
-    <t>0.773</t>
-  </si>
-  <si>
-    <t>0.007+/-0.001</t>
-  </si>
-  <si>
-    <t>0.592+/-0.004</t>
-  </si>
-  <si>
-    <t>0.591+/-0.0</t>
-  </si>
-  <si>
-    <t>0.541</t>
-  </si>
-  <si>
-    <t>0.583+/-0.003</t>
-  </si>
-  <si>
-    <t>0.582+/-0.011</t>
-  </si>
-  <si>
-    <t>0.244</t>
-  </si>
-  <si>
-    <t>0.647+/-0.009</t>
+    <t>0.661+/-0.006</t>
+  </si>
+  <si>
+    <t>0.639+/-0.037</t>
+  </si>
+  <si>
+    <t>0.366</t>
+  </si>
+  <si>
+    <t>0.658+/-0.004</t>
   </si>
   <si>
     <t>0.645+/-0.018</t>
   </si>
   <si>
-    <t>0.608</t>
-  </si>
-  <si>
-    <t>0.008+/-0.001</t>
-  </si>
-  <si>
-    <t>0.816+/-0.009</t>
-  </si>
-  <si>
-    <t>0.757+/-0.0</t>
-  </si>
-  <si>
-    <t>0.638</t>
-  </si>
-  <si>
-    <t>0.799+/-0.021</t>
-  </si>
-  <si>
-    <t>0.738+/-0.022</t>
-  </si>
-  <si>
-    <t>0.304</t>
-  </si>
-  <si>
-    <t>0.848+/-0.034</t>
-  </si>
-  <si>
-    <t>0.8+/-0.037</t>
-  </si>
-  <si>
-    <t>0.616</t>
-  </si>
-  <si>
-    <t>4.633+/-0.643</t>
-  </si>
-  <si>
-    <t>0.758+/-0.004</t>
-  </si>
-  <si>
-    <t>0.715+/-0.0</t>
-  </si>
-  <si>
-    <t>0.69</t>
-  </si>
-  <si>
-    <t>0.774+/-0.011</t>
-  </si>
-  <si>
-    <t>0.726+/-0.016</t>
-  </si>
-  <si>
-    <t>0.316</t>
-  </si>
-  <si>
-    <t>0.73+/-0.024</t>
-  </si>
-  <si>
-    <t>0.692+/-0.019</t>
-  </si>
-  <si>
-    <t>0.461</t>
-  </si>
-  <si>
-    <t>0.149+/-0.014</t>
-  </si>
-  <si>
-    <t>0.751+/-0.003</t>
-  </si>
-  <si>
-    <t>0.713+/-0.0</t>
-  </si>
-  <si>
-    <t>0.688</t>
-  </si>
-  <si>
-    <t>0.766+/-0.014</t>
-  </si>
-  <si>
-    <t>0.723+/-0.019</t>
-  </si>
-  <si>
-    <t>0.314</t>
-  </si>
-  <si>
-    <t>0.725+/-0.028</t>
-  </si>
-  <si>
-    <t>0.693+/-0.018</t>
-  </si>
-  <si>
-    <t>0.2+/-0.006</t>
-  </si>
-  <si>
-    <t>0.753+/-0.001</t>
-  </si>
-  <si>
-    <t>0.729+/-0.0</t>
-  </si>
-  <si>
-    <t>0.657</t>
-  </si>
-  <si>
-    <t>0.729+/-0.003</t>
-  </si>
-  <si>
-    <t>0.706+/-0.011</t>
-  </si>
-  <si>
-    <t>0.322</t>
-  </si>
-  <si>
-    <t>0.807+/-0.004</t>
-  </si>
-  <si>
-    <t>0.784+/-0.016</t>
-  </si>
-  <si>
-    <t>0.632</t>
-  </si>
-  <si>
-    <t>34.719+/-0.441</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.0+/-0.0</t>
-  </si>
-  <si>
-    <t>0.817+/-0.0</t>
-  </si>
-  <si>
-    <t>0.634</t>
-  </si>
-  <si>
-    <t>0.736+/-0.011</t>
-  </si>
-  <si>
-    <t>0.232</t>
-  </si>
-  <si>
-    <t>0.988+/-0.004</t>
-  </si>
-  <si>
-    <t>0.624</t>
-  </si>
-  <si>
-    <t>0.659+/-0.002</t>
-  </si>
-  <si>
-    <t>0.656+/-0.0</t>
-  </si>
-  <si>
-    <t>0.604</t>
-  </si>
-  <si>
-    <t>0.648+/-0.002</t>
-  </si>
-  <si>
-    <t>0.645+/-0.01</t>
-  </si>
-  <si>
-    <t>0.22</t>
-  </si>
-  <si>
-    <t>0.694+/-0.003</t>
-  </si>
-  <si>
-    <t>0.693+/-0.023</t>
-  </si>
-  <si>
-    <t>0.353+/-0.062</t>
-  </si>
-  <si>
-    <t>0.599+/-0.002</t>
-  </si>
-  <si>
-    <t>0.597+/-0.0</t>
-  </si>
-  <si>
-    <t>0.452</t>
-  </si>
-  <si>
-    <t>0.571+/-0.001</t>
-  </si>
-  <si>
-    <t>0.57+/-0.011</t>
-  </si>
-  <si>
-    <t>0.183</t>
-  </si>
-  <si>
-    <t>0.802+/-0.003</t>
-  </si>
-  <si>
-    <t>0.8+/-0.013</t>
-  </si>
-  <si>
-    <t>0.763</t>
-  </si>
-  <si>
-    <t>0.603+/-0.002</t>
-  </si>
-  <si>
-    <t>0.601+/-0.0</t>
-  </si>
-  <si>
-    <t>0.555</t>
-  </si>
-  <si>
-    <t>0.592+/-0.002</t>
-  </si>
-  <si>
-    <t>0.591+/-0.016</t>
-  </si>
-  <si>
-    <t>0.194</t>
-  </si>
-  <si>
-    <t>0.658+/-0.003</t>
-  </si>
-  <si>
-    <t>0.657+/-0.019</t>
-  </si>
-  <si>
-    <t>0.01+/-0.001</t>
-  </si>
-  <si>
-    <t>0.848+/-0.011</t>
-  </si>
-  <si>
-    <t>0.797+/-0.0</t>
-  </si>
-  <si>
-    <t>0.739</t>
-  </si>
-  <si>
-    <t>0.833+/-0.022</t>
-  </si>
-  <si>
-    <t>0.778+/-0.027</t>
-  </si>
-  <si>
-    <t>0.284</t>
-  </si>
-  <si>
-    <t>0.874+/-0.04</t>
-  </si>
-  <si>
-    <t>0.835+/-0.042</t>
-  </si>
-  <si>
-    <t>0.487</t>
-  </si>
-  <si>
-    <t>4.35+/-1.134</t>
-  </si>
-  <si>
-    <t>0.803+/-0.006</t>
-  </si>
-  <si>
-    <t>0.764+/-0.0</t>
-  </si>
-  <si>
-    <t>0.801</t>
-  </si>
-  <si>
-    <t>0.866+/-0.061</t>
-  </si>
-  <si>
-    <t>0.819+/-0.057</t>
-  </si>
-  <si>
-    <t>0.311</t>
-  </si>
-  <si>
-    <t>0.732+/-0.094</t>
-  </si>
-  <si>
-    <t>0.694+/-0.092</t>
-  </si>
-  <si>
-    <t>0.269</t>
-  </si>
-  <si>
-    <t>0.169+/-0.013</t>
-  </si>
-  <si>
-    <t>0.798+/-0.003</t>
-  </si>
-  <si>
-    <t>0.783+/-0.014</t>
-  </si>
-  <si>
-    <t>0.752+/-0.018</t>
-  </si>
-  <si>
-    <t>0.204</t>
-  </si>
-  <si>
-    <t>0.824+/-0.026</t>
-  </si>
-  <si>
-    <t>0.791+/-0.03</t>
+    <t>0.617</t>
+  </si>
+  <si>
+    <t>0.02+/-0.005</t>
+  </si>
+  <si>
+    <t>0.868+/-0.006</t>
+  </si>
+  <si>
+    <t>0.731+/-0.0</t>
+  </si>
+  <si>
+    <t>0.831</t>
+  </si>
+  <si>
+    <t>0.846+/-0.009</t>
+  </si>
+  <si>
+    <t>0.283+/-0.021</t>
   </si>
   <si>
     <t>0.373</t>
   </si>
   <si>
-    <t>0.225+/-0.005</t>
-  </si>
-  <si>
-    <t>0.78+/-0.002</t>
-  </si>
-  <si>
-    <t>0.76+/-0.0</t>
-  </si>
-  <si>
-    <t>0.689</t>
-  </si>
-  <si>
-    <t>0.758+/-0.002</t>
-  </si>
-  <si>
-    <t>0.738+/-0.01</t>
-  </si>
-  <si>
-    <t>0.261</t>
-  </si>
-  <si>
-    <t>0.822+/-0.002</t>
-  </si>
-  <si>
-    <t>0.805+/-0.017</t>
+    <t>0.899+/-0.017</t>
+  </si>
+  <si>
+    <t>0.513+/-0.032</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>0.937+/-0.005</t>
+  </si>
+  <si>
+    <t>0.698+/-0.025</t>
+  </si>
+  <si>
+    <t>0.701</t>
+  </si>
+  <si>
+    <t>14.529+/-2.968</t>
+  </si>
+  <si>
+    <t>0.814+/-0.017</t>
+  </si>
+  <si>
+    <t>0.718+/-0.0</t>
+  </si>
+  <si>
+    <t>0.838</t>
+  </si>
+  <si>
+    <t>0.814+/-0.055</t>
+  </si>
+  <si>
+    <t>0.279+/-0.059</t>
+  </si>
+  <si>
+    <t>0.426</t>
+  </si>
+  <si>
+    <t>0.828+/-0.082</t>
+  </si>
+  <si>
+    <t>0.491+/-0.082</t>
+  </si>
+  <si>
+    <t>0.226</t>
+  </si>
+  <si>
+    <t>0.913+/-0.011</t>
+  </si>
+  <si>
+    <t>0.674+/-0.012</t>
+  </si>
+  <si>
+    <t>0.265+/-0.019</t>
+  </si>
+  <si>
+    <t>0.8+/-0.012</t>
+  </si>
+  <si>
+    <t>0.766+/-0.0</t>
+  </si>
+  <si>
+    <t>0.832</t>
+  </si>
+  <si>
+    <t>0.853+/-0.062</t>
+  </si>
+  <si>
+    <t>0.322+/-0.071</t>
+  </si>
+  <si>
+    <t>0.368</t>
+  </si>
+  <si>
+    <t>0.739+/-0.09</t>
+  </si>
+  <si>
+    <t>0.41+/-0.082</t>
+  </si>
+  <si>
+    <t>0.165</t>
+  </si>
+  <si>
+    <t>0.905+/-0.008</t>
+  </si>
+  <si>
+    <t>0.676+/-0.023</t>
+  </si>
+  <si>
+    <t>0.377+/-0.011</t>
+  </si>
+  <si>
+    <t>0.789+/-0.003</t>
+  </si>
+  <si>
+    <t>0.709+/-0.0</t>
+  </si>
+  <si>
+    <t>0.851</t>
+  </si>
+  <si>
+    <t>0.766+/-0.005</t>
+  </si>
+  <si>
+    <t>0.286+/-0.016</t>
+  </si>
+  <si>
+    <t>0.533</t>
+  </si>
+  <si>
+    <t>0.832+/-0.01</t>
+  </si>
+  <si>
+    <t>0.625+/-0.046</t>
+  </si>
+  <si>
+    <t>0.057</t>
+  </si>
+  <si>
+    <t>0.876+/-0.001</t>
+  </si>
+  <si>
+    <t>0.732+/-0.015</t>
+  </si>
+  <si>
+    <t>0.665</t>
+  </si>
+  <si>
+    <t>66.359+/-1.374</t>
+  </si>
+  <si>
+    <t>0.723+/-0.0</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.544+/-0.0</t>
+  </si>
+  <si>
+    <t>0.702</t>
+  </si>
+  <si>
+    <t>0.317+/-0.018</t>
+  </si>
+  <si>
+    <t>0.396</t>
+  </si>
+  <si>
+    <t>0.996+/-0.001</t>
+  </si>
+  <si>
+    <t>0.562+/-0.038</t>
+  </si>
+  <si>
+    <t>0.144</t>
+  </si>
+  <si>
+    <t>1.0+/-0.001</t>
+  </si>
+  <si>
+    <t>0.577+/-0.026</t>
+  </si>
+  <si>
+    <t>0.581</t>
+  </si>
+  <si>
+    <t>0.588+/-0.003</t>
+  </si>
+  <si>
+    <t>0.607+/-0.0</t>
+  </si>
+  <si>
+    <t>0.727</t>
+  </si>
+  <si>
+    <t>0.597+/-0.003</t>
+  </si>
+  <si>
+    <t>0.359+/-0.01</t>
+  </si>
+  <si>
+    <t>0.54+/-0.007</t>
+  </si>
+  <si>
+    <t>0.535+/-0.03</t>
+  </si>
+  <si>
+    <t>0.049</t>
+  </si>
+  <si>
+    <t>0.625+/-0.003</t>
+  </si>
+  <si>
+    <t>0.614+/-0.013</t>
+  </si>
+  <si>
+    <t>0.609</t>
+  </si>
+  <si>
+    <t>0.283+/-0.041</t>
+  </si>
+  <si>
+    <t>0.562+/-0.004</t>
+  </si>
+  <si>
+    <t>0.626+/-0.0</t>
+  </si>
+  <si>
+    <t>0.68</t>
+  </si>
+  <si>
+    <t>0.588+/-0.004</t>
+  </si>
+  <si>
+    <t>0.349+/-0.015</t>
+  </si>
+  <si>
+    <t>0.393</t>
+  </si>
+  <si>
+    <t>0.414+/-0.022</t>
+  </si>
+  <si>
+    <t>0.407+/-0.037</t>
+  </si>
+  <si>
+    <t>0.289</t>
+  </si>
+  <si>
+    <t>0.595+/-0.002</t>
+  </si>
+  <si>
+    <t>0.589+/-0.019</t>
+  </si>
+  <si>
+    <t>0.603</t>
+  </si>
+  <si>
+    <t>0.011+/-0.001</t>
+  </si>
+  <si>
+    <t>0.563+/-0.003</t>
+  </si>
+  <si>
+    <t>0.587+/-0.0</t>
+  </si>
+  <si>
+    <t>0.644</t>
+  </si>
+  <si>
+    <t>0.338+/-0.022</t>
+  </si>
+  <si>
+    <t>0.364</t>
+  </si>
+  <si>
+    <t>0.51+/-0.003</t>
+  </si>
+  <si>
+    <t>0.512+/-0.029</t>
+  </si>
+  <si>
+    <t>0.383</t>
+  </si>
+  <si>
+    <t>0.589+/-0.002</t>
+  </si>
+  <si>
+    <t>0.587+/-0.023</t>
+  </si>
+  <si>
+    <t>0.596</t>
+  </si>
+  <si>
+    <t>0.015+/-0.003</t>
+  </si>
+  <si>
+    <t>0.742+/-0.011</t>
+  </si>
+  <si>
+    <t>0.584+/-0.0</t>
+  </si>
+  <si>
+    <t>0.705</t>
+  </si>
+  <si>
+    <t>0.731+/-0.024</t>
+  </si>
+  <si>
+    <t>0.327+/-0.026</t>
+  </si>
+  <si>
+    <t>0.417</t>
+  </si>
+  <si>
+    <t>0.77+/-0.042</t>
+  </si>
+  <si>
+    <t>0.465+/-0.043</t>
+  </si>
+  <si>
+    <t>0.167</t>
+  </si>
+  <si>
+    <t>0.827+/-0.01</t>
+  </si>
+  <si>
+    <t>0.568+/-0.024</t>
+  </si>
+  <si>
+    <t>0.591</t>
+  </si>
+  <si>
+    <t>14.11+/-4.864</t>
+  </si>
+  <si>
+    <t>0.745+/-0.009</t>
+  </si>
+  <si>
+    <t>0.649+/-0.0</t>
+  </si>
+  <si>
+    <t>0.715</t>
+  </si>
+  <si>
+    <t>0.807+/-0.056</t>
+  </si>
+  <si>
+    <t>0.357+/-0.037</t>
+  </si>
+  <si>
+    <t>0.456</t>
+  </si>
+  <si>
+    <t>0.656+/-0.071</t>
+  </si>
+  <si>
+    <t>0.313+/-0.088</t>
+  </si>
+  <si>
+    <t>0.161</t>
+  </si>
+  <si>
+    <t>0.844+/-0.01</t>
+  </si>
+  <si>
+    <t>0.571+/-0.02</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>0.191+/-0.015</t>
+  </si>
+  <si>
+    <t>0.733+/-0.011</t>
+  </si>
+  <si>
+    <t>0.674+/-0.0</t>
+  </si>
+  <si>
+    <t>0.719</t>
+  </si>
+  <si>
+    <t>0.841+/-0.067</t>
+  </si>
+  <si>
+    <t>0.397+/-0.059</t>
+  </si>
+  <si>
+    <t>0.476</t>
+  </si>
+  <si>
+    <t>0.588+/-0.068</t>
+  </si>
+  <si>
+    <t>0.27+/-0.074</t>
+  </si>
+  <si>
+    <t>0.132</t>
+  </si>
+  <si>
+    <t>0.829+/-0.011</t>
+  </si>
+  <si>
+    <t>0.571+/-0.025</t>
+  </si>
+  <si>
+    <t>0.583</t>
+  </si>
+  <si>
+    <t>0.26+/-0.01</t>
+  </si>
+  <si>
+    <t>0.673+/-0.003</t>
+  </si>
+  <si>
+    <t>0.593+/-0.0</t>
+  </si>
+  <si>
+    <t>0.724</t>
+  </si>
+  <si>
+    <t>0.669+/-0.004</t>
+  </si>
+  <si>
+    <t>0.346+/-0.015</t>
+  </si>
+  <si>
+    <t>0.538</t>
+  </si>
+  <si>
+    <t>0.684+/-0.015</t>
+  </si>
+  <si>
+    <t>0.526+/-0.027</t>
+  </si>
+  <si>
+    <t>0.027</t>
+  </si>
+  <si>
+    <t>0.75+/-0.001</t>
+  </si>
+  <si>
+    <t>0.607+/-0.017</t>
+  </si>
+  <si>
+    <t>0.599</t>
+  </si>
+  <si>
+    <t>57.111+/-1.87</t>
+  </si>
+  <si>
+    <t>0.692+/-0.0</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.53+/-0.0</t>
+  </si>
+  <si>
+    <t>0.67</t>
+  </si>
+  <si>
+    <t>0.339+/-0.022</t>
+  </si>
+  <si>
+    <t>0.407</t>
+  </si>
+  <si>
+    <t>0.554+/-0.04</t>
+  </si>
+  <si>
+    <t>0.157</t>
+  </si>
+  <si>
+    <t>0.551+/-0.023</t>
+  </si>
+  <si>
+    <t>0.57</t>
+  </si>
+  <si>
+    <t>0.006+/-0.001</t>
+  </si>
+  <si>
+    <t>0.567+/-0.003</t>
+  </si>
+  <si>
+    <t>0.574+/-0.0</t>
+  </si>
+  <si>
+    <t>0.695</t>
+  </si>
+  <si>
+    <t>0.572+/-0.003</t>
+  </si>
+  <si>
+    <t>0.365+/-0.015</t>
+  </si>
+  <si>
+    <t>0.562</t>
+  </si>
+  <si>
+    <t>0.532+/-0.01</t>
+  </si>
+  <si>
+    <t>0.52+/-0.029</t>
+  </si>
+  <si>
+    <t>0.047</t>
+  </si>
+  <si>
+    <t>0.601+/-0.003</t>
+  </si>
+  <si>
+    <t>0.585+/-0.021</t>
   </si>
   <si>
     <t>0.584</t>
   </si>
   <si>
-    <t>39.724+/-1.533</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.15+/-0.229</t>
-  </si>
-  <si>
-    <t>0.3+/-0.458</t>
-  </si>
-  <si>
-    <t>0.998+/-0.001</t>
-  </si>
-  <si>
-    <t>0.731+/-0.0</t>
-  </si>
-  <si>
-    <t>0.537</t>
-  </si>
-  <si>
-    <t>0.999+/-0.003</t>
-  </si>
-  <si>
-    <t>0.666+/-0.013</t>
-  </si>
-  <si>
-    <t>0.997+/-0.001</t>
-  </si>
-  <si>
-    <t>0.925+/-0.009</t>
-  </si>
-  <si>
-    <t>0.002+/-0.0</t>
-  </si>
-  <si>
-    <t>0.587+/-0.003</t>
-  </si>
-  <si>
-    <t>0.584+/-0.0</t>
-  </si>
-  <si>
-    <t>0.602</t>
-  </si>
-  <si>
-    <t>0.597+/-0.003</t>
-  </si>
-  <si>
-    <t>0.593+/-0.016</t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t>0.535+/-0.004</t>
-  </si>
-  <si>
-    <t>0.533+/-0.022</t>
-  </si>
-  <si>
-    <t>0.511</t>
-  </si>
-  <si>
-    <t>0.204+/-0.024</t>
-  </si>
-  <si>
-    <t>0.561+/-0.002</t>
-  </si>
-  <si>
-    <t>0.56+/-0.0</t>
-  </si>
-  <si>
-    <t>0.644</t>
-  </si>
-  <si>
-    <t>0.591+/-0.002</t>
-  </si>
-  <si>
-    <t>0.59+/-0.016</t>
-  </si>
-  <si>
-    <t>0.369</t>
-  </si>
-  <si>
-    <t>0.395+/-0.009</t>
-  </si>
-  <si>
-    <t>0.394+/-0.018</t>
-  </si>
-  <si>
-    <t>0.402</t>
-  </si>
-  <si>
-    <t>0.006+/-0.001</t>
-  </si>
-  <si>
-    <t>0.564+/-0.001</t>
-  </si>
-  <si>
-    <t>0.564+/-0.0</t>
-  </si>
-  <si>
-    <t>0.571+/-0.002</t>
-  </si>
-  <si>
-    <t>0.572+/-0.016</t>
-  </si>
-  <si>
-    <t>0.338</t>
-  </si>
-  <si>
-    <t>0.513+/-0.002</t>
-  </si>
-  <si>
-    <t>0.513+/-0.012</t>
-  </si>
-  <si>
-    <t>0.73+/-0.006</t>
-  </si>
-  <si>
-    <t>0.653+/-0.0</t>
-  </si>
-  <si>
-    <t>0.709+/-0.022</t>
-  </si>
-  <si>
-    <t>0.638+/-0.024</t>
-  </si>
-  <si>
-    <t>0.335</t>
-  </si>
-  <si>
-    <t>0.783+/-0.049</t>
-  </si>
-  <si>
-    <t>0.714+/-0.056</t>
-  </si>
-  <si>
-    <t>0.509</t>
-  </si>
-  <si>
-    <t>3.719+/-0.288</t>
-  </si>
-  <si>
-    <t>0.75+/-0.004</t>
-  </si>
-  <si>
-    <t>0.684+/-0.0</t>
-  </si>
-  <si>
-    <t>0.671</t>
-  </si>
-  <si>
-    <t>0.858+/-0.025</t>
-  </si>
-  <si>
-    <t>0.764+/-0.032</t>
-  </si>
-  <si>
-    <t>0.366</t>
-  </si>
-  <si>
-    <t>0.6+/-0.026</t>
-  </si>
-  <si>
-    <t>0.536+/-0.03</t>
-  </si>
-  <si>
-    <t>0.256</t>
-  </si>
-  <si>
-    <t>0.119+/-0.007</t>
-  </si>
-  <si>
-    <t>0.735+/-0.004</t>
-  </si>
-  <si>
-    <t>0.688+/-0.0</t>
-  </si>
-  <si>
-    <t>0.699</t>
-  </si>
-  <si>
-    <t>0.875+/-0.048</t>
-  </si>
-  <si>
-    <t>0.798+/-0.044</t>
-  </si>
-  <si>
-    <t>0.398</t>
-  </si>
-  <si>
-    <t>0.556+/-0.055</t>
-  </si>
-  <si>
-    <t>0.512+/-0.056</t>
-  </si>
-  <si>
-    <t>0.171</t>
-  </si>
-  <si>
-    <t>0.161+/-0.005</t>
-  </si>
-  <si>
-    <t>0.675+/-0.003</t>
-  </si>
-  <si>
-    <t>0.632+/-0.0</t>
-  </si>
-  <si>
-    <t>0.59</t>
-  </si>
-  <si>
-    <t>0.673+/-0.003</t>
-  </si>
-  <si>
-    <t>0.63+/-0.012</t>
-  </si>
-  <si>
-    <t>0.341</t>
-  </si>
-  <si>
-    <t>0.683+/-0.005</t>
-  </si>
-  <si>
-    <t>0.641+/-0.015</t>
-  </si>
-  <si>
-    <t>0.518</t>
-  </si>
-  <si>
-    <t>28.712+/-0.977</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.25+/-0.25</t>
-  </si>
-  <si>
-    <t>0.5+/-0.5</t>
-  </si>
-  <si>
-    <t>0.704+/-0.0</t>
-  </si>
-  <si>
-    <t>0.546</t>
-  </si>
-  <si>
-    <t>0.649+/-0.009</t>
-  </si>
-  <si>
-    <t>0.346</t>
-  </si>
-  <si>
-    <t>0.997+/-0.0</t>
-  </si>
-  <si>
-    <t>0.893+/-0.01</t>
-  </si>
-  <si>
-    <t>0.532</t>
-  </si>
-  <si>
-    <t>0.563+/-0.002</t>
-  </si>
-  <si>
-    <t>0.557+/-0.0</t>
-  </si>
-  <si>
-    <t>0.571</t>
+    <t>0.282+/-0.036</t>
+  </si>
+  <si>
+    <t>0.553+/-0.003</t>
+  </si>
+  <si>
+    <t>0.599+/-0.0</t>
+  </si>
+  <si>
+    <t>0.647</t>
+  </si>
+  <si>
+    <t>0.571+/-0.003</t>
+  </si>
+  <si>
+    <t>0.369+/-0.012</t>
+  </si>
+  <si>
+    <t>0.399</t>
+  </si>
+  <si>
+    <t>0.425+/-0.02</t>
+  </si>
+  <si>
+    <t>0.422+/-0.028</t>
+  </si>
+  <si>
+    <t>0.286</t>
+  </si>
+  <si>
+    <t>0.58+/-0.003</t>
+  </si>
+  <si>
+    <t>0.574+/-0.009</t>
+  </si>
+  <si>
+    <t>0.592</t>
+  </si>
+  <si>
+    <t>0.012+/-0.001</t>
+  </si>
+  <si>
+    <t>0.55+/-0.003</t>
+  </si>
+  <si>
+    <t>0.562+/-0.0</t>
+  </si>
+  <si>
+    <t>0.615</t>
+  </si>
+  <si>
+    <t>0.554+/-0.003</t>
+  </si>
+  <si>
+    <t>0.353+/-0.011</t>
+  </si>
+  <si>
+    <t>0.375</t>
+  </si>
+  <si>
+    <t>0.513+/-0.005</t>
+  </si>
+  <si>
+    <t>0.505+/-0.02</t>
   </si>
   <si>
     <t>0.569+/-0.003</t>
   </si>
   <si>
-    <t>0.563+/-0.012</t>
-  </si>
-  <si>
-    <t>0.356</t>
-  </si>
-  <si>
-    <t>0.517+/-0.004</t>
-  </si>
-  <si>
-    <t>0.512+/-0.014</t>
-  </si>
-  <si>
-    <t>0.485</t>
-  </si>
-  <si>
-    <t>0.172+/-0.013</t>
-  </si>
-  <si>
-    <t>0.553+/-0.002</t>
-  </si>
-  <si>
-    <t>0.553+/-0.0</t>
-  </si>
-  <si>
-    <t>0.574+/-0.003</t>
-  </si>
-  <si>
-    <t>0.574+/-0.021</t>
-  </si>
-  <si>
-    <t>0.386</t>
-  </si>
-  <si>
-    <t>0.412+/-0.013</t>
-  </si>
-  <si>
-    <t>0.415+/-0.025</t>
-  </si>
-  <si>
-    <t>0.421</t>
-  </si>
-  <si>
-    <t>0.005+/-0.001</t>
-  </si>
-  <si>
-    <t>0.548+/-0.002</t>
-  </si>
-  <si>
-    <t>0.548+/-0.0</t>
+    <t>0.566+/-0.012</t>
+  </si>
+  <si>
+    <t>0.025+/-0.016</t>
+  </si>
+  <si>
+    <t>0.728+/-0.011</t>
+  </si>
+  <si>
+    <t>0.556+/-0.0</t>
+  </si>
+  <si>
+    <t>0.687</t>
+  </si>
+  <si>
+    <t>0.72+/-0.022</t>
+  </si>
+  <si>
+    <t>0.342+/-0.019</t>
+  </si>
+  <si>
+    <t>0.471</t>
+  </si>
+  <si>
+    <t>0.752+/-0.051</t>
+  </si>
+  <si>
+    <t>0.471+/-0.045</t>
+  </si>
+  <si>
+    <t>0.812+/-0.011</t>
+  </si>
+  <si>
+    <t>0.547+/-0.022</t>
   </si>
   <si>
     <t>0.572</t>
   </si>
   <si>
-    <t>0.552+/-0.016</t>
-  </si>
-  <si>
-    <t>0.36</t>
-  </si>
-  <si>
-    <t>0.506+/-0.003</t>
-  </si>
-  <si>
-    <t>0.504+/-0.022</t>
-  </si>
-  <si>
-    <t>0.501</t>
-  </si>
-  <si>
-    <t>0.723+/-0.012</t>
-  </si>
-  <si>
-    <t>0.622+/-0.0</t>
-  </si>
-  <si>
-    <t>0.576</t>
-  </si>
-  <si>
-    <t>0.717+/-0.024</t>
-  </si>
-  <si>
-    <t>0.615+/-0.015</t>
-  </si>
-  <si>
-    <t>0.344</t>
-  </si>
-  <si>
-    <t>0.742+/-0.06</t>
-  </si>
-  <si>
-    <t>0.655+/-0.073</t>
-  </si>
-  <si>
-    <t>0.415</t>
-  </si>
-  <si>
-    <t>3.034+/-0.826</t>
-  </si>
-  <si>
-    <t>0.728+/-0.006</t>
-  </si>
-  <si>
-    <t>0.662+/-0.0</t>
-  </si>
-  <si>
-    <t>0.587</t>
-  </si>
-  <si>
-    <t>0.735+/-0.013</t>
-  </si>
-  <si>
-    <t>0.668+/-0.018</t>
-  </si>
-  <si>
-    <t>0.348</t>
-  </si>
-  <si>
-    <t>0.713+/-0.021</t>
-  </si>
-  <si>
-    <t>0.647+/-0.02</t>
-  </si>
-  <si>
-    <t>0.391</t>
-  </si>
-  <si>
-    <t>0.108+/-0.007</t>
-  </si>
-  <si>
-    <t>0.718+/-0.005</t>
-  </si>
-  <si>
-    <t>0.6</t>
-  </si>
-  <si>
-    <t>0.734+/-0.014</t>
-  </si>
-  <si>
-    <t>0.675+/-0.025</t>
-  </si>
-  <si>
-    <t>0.686+/-0.027</t>
-  </si>
-  <si>
-    <t>0.629+/-0.03</t>
-  </si>
-  <si>
-    <t>0.34</t>
-  </si>
-  <si>
-    <t>0.145+/-0.006</t>
-  </si>
-  <si>
-    <t>0.669+/-0.002</t>
-  </si>
-  <si>
-    <t>0.618+/-0.0</t>
-  </si>
-  <si>
-    <t>0.591</t>
-  </si>
-  <si>
-    <t>0.667+/-0.003</t>
-  </si>
-  <si>
-    <t>0.615+/-0.011</t>
-  </si>
-  <si>
-    <t>0.379</t>
-  </si>
-  <si>
-    <t>0.676+/-0.007</t>
-  </si>
-  <si>
-    <t>0.627+/-0.021</t>
-  </si>
-  <si>
-    <t>0.513</t>
-  </si>
-  <si>
-    <t>25.673+/-0.481</t>
+    <t>10.368+/-2.323</t>
+  </si>
+  <si>
+    <t>0.732+/-0.009</t>
+  </si>
+  <si>
+    <t>0.603+/-0.0</t>
+  </si>
+  <si>
+    <t>0.677</t>
+  </si>
+  <si>
+    <t>0.742+/-0.013</t>
+  </si>
+  <si>
+    <t>0.371+/-0.021</t>
+  </si>
+  <si>
+    <t>0.447</t>
+  </si>
+  <si>
+    <t>0.712+/-0.025</t>
+  </si>
+  <si>
+    <t>0.414+/-0.033</t>
+  </si>
+  <si>
+    <t>0.208</t>
+  </si>
+  <si>
+    <t>0.824+/-0.009</t>
+  </si>
+  <si>
+    <t>0.561+/-0.018</t>
+  </si>
+  <si>
+    <t>0.184+/-0.008</t>
+  </si>
+  <si>
+    <t>0.72+/-0.007</t>
+  </si>
+  <si>
+    <t>0.602+/-0.0</t>
+  </si>
+  <si>
+    <t>0.741+/-0.03</t>
+  </si>
+  <si>
+    <t>0.363+/-0.026</t>
+  </si>
+  <si>
+    <t>0.494</t>
+  </si>
+  <si>
+    <t>0.683+/-0.051</t>
+  </si>
+  <si>
+    <t>0.379+/-0.063</t>
+  </si>
+  <si>
+    <t>0.136</t>
+  </si>
+  <si>
+    <t>0.813+/-0.009</t>
+  </si>
+  <si>
+    <t>0.549+/-0.022</t>
+  </si>
+  <si>
+    <t>0.597</t>
+  </si>
+  <si>
+    <t>0.271+/-0.007</t>
+  </si>
+  <si>
+    <t>0.67+/-0.006</t>
+  </si>
+  <si>
+    <t>0.578+/-0.0</t>
+  </si>
+  <si>
+    <t>0.663+/-0.007</t>
+  </si>
+  <si>
+    <t>0.371+/-0.014</t>
+  </si>
+  <si>
+    <t>0.693+/-0.008</t>
+  </si>
+  <si>
+    <t>0.532+/-0.027</t>
+  </si>
+  <si>
+    <t>0.024</t>
+  </si>
+  <si>
+    <t>0.739+/-0.005</t>
+  </si>
+  <si>
+    <t>0.582+/-0.017</t>
+  </si>
+  <si>
+    <t>0.569</t>
+  </si>
+  <si>
+    <t>54.964+/-1.446</t>
   </si>
 </sst>
 </file>
@@ -1361,7 +1661,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1401,31 +1701,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
         <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="I2" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="J2" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1433,31 +1733,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="I3" t="s">
-        <v>86</v>
+        <v>107</v>
       </c>
       <c r="J3" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1465,31 +1765,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>95</v>
       </c>
       <c r="I4" t="s">
-        <v>87</v>
+        <v>108</v>
       </c>
       <c r="J4" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1497,31 +1797,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="I5" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="J5" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1529,31 +1829,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="I6" t="s">
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="J6" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1561,31 +1861,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
       <c r="J7" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1593,31 +1893,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="H8" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="J8" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1625,31 +1925,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="H9" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1657,31 +1957,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="H10" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="I10" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1689,31 +1989,127 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" t="s">
+        <v>78</v>
+      </c>
+      <c r="G13" t="s">
+        <v>91</v>
+      </c>
+      <c r="H13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
         <v>54</v>
       </c>
-      <c r="F11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" t="s">
-        <v>84</v>
-      </c>
-      <c r="I11" t="s">
-        <v>93</v>
-      </c>
-      <c r="J11" t="s">
-        <v>103</v>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" t="s">
+        <v>92</v>
+      </c>
+      <c r="H14" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14" t="s">
+        <v>118</v>
+      </c>
+      <c r="J14" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1723,7 +2119,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1763,31 +2159,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="G2" t="s">
-        <v>139</v>
+        <v>183</v>
       </c>
       <c r="H2" t="s">
-        <v>149</v>
+        <v>196</v>
       </c>
       <c r="I2" t="s">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="J2" t="s">
-        <v>167</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1795,31 +2191,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="F3" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="G3" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="H3" t="s">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="I3" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
       <c r="J3" t="s">
-        <v>168</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1827,31 +2223,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="F4" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="G4" t="s">
-        <v>141</v>
+        <v>185</v>
       </c>
       <c r="H4" t="s">
-        <v>151</v>
+        <v>198</v>
       </c>
       <c r="I4" t="s">
-        <v>87</v>
+        <v>210</v>
       </c>
       <c r="J4" t="s">
-        <v>169</v>
+        <v>222</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1859,31 +2255,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>147</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="F5" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
       <c r="G5" t="s">
-        <v>142</v>
+        <v>186</v>
       </c>
       <c r="H5" t="s">
-        <v>152</v>
+        <v>199</v>
       </c>
       <c r="I5" t="s">
-        <v>160</v>
+        <v>211</v>
       </c>
       <c r="J5" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1891,31 +2287,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>137</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="E6" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="F6" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="G6" t="s">
-        <v>143</v>
+        <v>187</v>
       </c>
       <c r="H6" t="s">
-        <v>153</v>
+        <v>200</v>
       </c>
       <c r="I6" t="s">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="J6" t="s">
-        <v>171</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1923,31 +2319,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>138</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="F7" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="G7" t="s">
-        <v>144</v>
+        <v>188</v>
       </c>
       <c r="H7" t="s">
-        <v>154</v>
+        <v>201</v>
       </c>
       <c r="I7" t="s">
-        <v>162</v>
+        <v>213</v>
       </c>
       <c r="J7" t="s">
-        <v>172</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1955,31 +2351,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>150</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="F8" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="G8" t="s">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c r="H8" t="s">
-        <v>155</v>
+        <v>202</v>
       </c>
       <c r="I8" t="s">
-        <v>163</v>
+        <v>214</v>
       </c>
       <c r="J8" t="s">
-        <v>173</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1987,31 +2383,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>110</v>
+        <v>139</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="E9" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="F9" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="G9" t="s">
-        <v>146</v>
+        <v>190</v>
       </c>
       <c r="H9" t="s">
-        <v>156</v>
+        <v>203</v>
       </c>
       <c r="I9" t="s">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c r="J9" t="s">
-        <v>174</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2019,31 +2415,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>152</v>
       </c>
       <c r="E10" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="F10" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c r="G10" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
       <c r="H10" t="s">
-        <v>157</v>
+        <v>204</v>
       </c>
       <c r="I10" t="s">
-        <v>165</v>
+        <v>216</v>
       </c>
       <c r="J10" t="s">
-        <v>175</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2051,31 +2447,127 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
       <c r="F11" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="G11" t="s">
-        <v>148</v>
+        <v>192</v>
       </c>
       <c r="H11" t="s">
-        <v>158</v>
+        <v>205</v>
       </c>
       <c r="I11" t="s">
-        <v>166</v>
+        <v>217</v>
       </c>
       <c r="J11" t="s">
-        <v>176</v>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12" t="s">
+        <v>167</v>
+      </c>
+      <c r="F12" t="s">
+        <v>180</v>
+      </c>
+      <c r="G12" t="s">
+        <v>193</v>
+      </c>
+      <c r="H12" t="s">
+        <v>206</v>
+      </c>
+      <c r="I12" t="s">
+        <v>218</v>
+      </c>
+      <c r="J12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" t="s">
+        <v>155</v>
+      </c>
+      <c r="E13" t="s">
+        <v>168</v>
+      </c>
+      <c r="F13" t="s">
+        <v>181</v>
+      </c>
+      <c r="G13" t="s">
+        <v>194</v>
+      </c>
+      <c r="H13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" t="s">
+        <v>182</v>
+      </c>
+      <c r="G14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H14" t="s">
+        <v>207</v>
+      </c>
+      <c r="I14" t="s">
+        <v>219</v>
+      </c>
+      <c r="J14" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -2085,7 +2577,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2125,31 +2617,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>180</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>188</v>
+        <v>245</v>
       </c>
       <c r="E2" t="s">
-        <v>198</v>
+        <v>257</v>
       </c>
       <c r="F2" t="s">
-        <v>208</v>
+        <v>270</v>
       </c>
       <c r="G2" t="s">
-        <v>215</v>
+        <v>282</v>
       </c>
       <c r="H2" t="s">
-        <v>224</v>
+        <v>295</v>
       </c>
       <c r="I2" t="s">
-        <v>234</v>
+        <v>308</v>
       </c>
       <c r="J2" t="s">
-        <v>244</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2157,31 +2649,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>233</v>
       </c>
       <c r="C3" t="s">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="D3" t="s">
-        <v>189</v>
+        <v>246</v>
       </c>
       <c r="E3" t="s">
-        <v>199</v>
+        <v>258</v>
       </c>
       <c r="F3" t="s">
-        <v>209</v>
+        <v>271</v>
       </c>
       <c r="G3" t="s">
-        <v>216</v>
+        <v>283</v>
       </c>
       <c r="H3" t="s">
-        <v>225</v>
+        <v>296</v>
       </c>
       <c r="I3" t="s">
-        <v>235</v>
+        <v>309</v>
       </c>
       <c r="J3" t="s">
-        <v>245</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2189,31 +2681,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>234</v>
       </c>
       <c r="C4" t="s">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="D4" t="s">
-        <v>190</v>
+        <v>247</v>
       </c>
       <c r="E4" t="s">
-        <v>200</v>
+        <v>259</v>
       </c>
       <c r="F4" t="s">
-        <v>37</v>
+        <v>272</v>
       </c>
       <c r="G4" t="s">
-        <v>175</v>
+        <v>284</v>
       </c>
       <c r="H4" t="s">
-        <v>226</v>
+        <v>297</v>
       </c>
       <c r="I4" t="s">
-        <v>236</v>
+        <v>310</v>
       </c>
       <c r="J4" t="s">
-        <v>246</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2221,31 +2713,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>183</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>191</v>
+        <v>248</v>
       </c>
       <c r="E5" t="s">
-        <v>201</v>
+        <v>260</v>
       </c>
       <c r="F5" t="s">
-        <v>210</v>
+        <v>160</v>
       </c>
       <c r="G5" t="s">
-        <v>217</v>
+        <v>285</v>
       </c>
       <c r="H5" t="s">
-        <v>227</v>
+        <v>298</v>
       </c>
       <c r="I5" t="s">
-        <v>237</v>
+        <v>311</v>
       </c>
       <c r="J5" t="s">
-        <v>247</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2253,31 +2745,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>178</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c r="D6" t="s">
-        <v>192</v>
+        <v>249</v>
       </c>
       <c r="E6" t="s">
-        <v>202</v>
+        <v>261</v>
       </c>
       <c r="F6" t="s">
-        <v>211</v>
+        <v>273</v>
       </c>
       <c r="G6" t="s">
-        <v>218</v>
+        <v>286</v>
       </c>
       <c r="H6" t="s">
-        <v>228</v>
+        <v>299</v>
       </c>
       <c r="I6" t="s">
-        <v>238</v>
+        <v>312</v>
       </c>
       <c r="J6" t="s">
-        <v>248</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2285,31 +2777,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>154</v>
+        <v>238</v>
       </c>
       <c r="D7" t="s">
-        <v>193</v>
+        <v>244</v>
       </c>
       <c r="E7" t="s">
-        <v>203</v>
+        <v>262</v>
       </c>
       <c r="F7" t="s">
-        <v>212</v>
+        <v>274</v>
       </c>
       <c r="G7" t="s">
-        <v>219</v>
+        <v>287</v>
       </c>
       <c r="H7" t="s">
-        <v>229</v>
+        <v>300</v>
       </c>
       <c r="I7" t="s">
-        <v>239</v>
+        <v>313</v>
       </c>
       <c r="J7" t="s">
-        <v>249</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2317,31 +2809,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>179</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>185</v>
+        <v>239</v>
       </c>
       <c r="D8" t="s">
-        <v>194</v>
+        <v>250</v>
       </c>
       <c r="E8" t="s">
-        <v>204</v>
+        <v>263</v>
       </c>
       <c r="F8" t="s">
-        <v>213</v>
+        <v>275</v>
       </c>
       <c r="G8" t="s">
-        <v>220</v>
+        <v>288</v>
       </c>
       <c r="H8" t="s">
-        <v>230</v>
+        <v>301</v>
       </c>
       <c r="I8" t="s">
-        <v>240</v>
+        <v>314</v>
       </c>
       <c r="J8" t="s">
-        <v>250</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2349,31 +2841,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>186</v>
+        <v>240</v>
       </c>
       <c r="D9" t="s">
-        <v>195</v>
+        <v>251</v>
       </c>
       <c r="E9" t="s">
-        <v>205</v>
+        <v>264</v>
       </c>
       <c r="F9" t="s">
-        <v>214</v>
+        <v>276</v>
       </c>
       <c r="G9" t="s">
-        <v>221</v>
+        <v>289</v>
       </c>
       <c r="H9" t="s">
-        <v>231</v>
+        <v>302</v>
       </c>
       <c r="I9" t="s">
-        <v>241</v>
+        <v>315</v>
       </c>
       <c r="J9" t="s">
-        <v>251</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2381,31 +2873,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>241</v>
       </c>
       <c r="D10" t="s">
-        <v>196</v>
+        <v>252</v>
       </c>
       <c r="E10" t="s">
-        <v>206</v>
+        <v>265</v>
       </c>
       <c r="F10" t="s">
-        <v>196</v>
+        <v>277</v>
       </c>
       <c r="G10" t="s">
-        <v>222</v>
+        <v>290</v>
       </c>
       <c r="H10" t="s">
-        <v>232</v>
+        <v>303</v>
       </c>
       <c r="I10" t="s">
-        <v>242</v>
+        <v>316</v>
       </c>
       <c r="J10" t="s">
-        <v>252</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2413,31 +2905,127 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>187</v>
+        <v>242</v>
       </c>
       <c r="D11" t="s">
-        <v>197</v>
+        <v>253</v>
       </c>
       <c r="E11" t="s">
-        <v>207</v>
+        <v>266</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>278</v>
       </c>
       <c r="G11" t="s">
-        <v>223</v>
+        <v>291</v>
       </c>
       <c r="H11" t="s">
-        <v>233</v>
+        <v>304</v>
       </c>
       <c r="I11" t="s">
+        <v>317</v>
+      </c>
+      <c r="J11" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
         <v>243</v>
       </c>
-      <c r="J11" t="s">
-        <v>253</v>
+      <c r="D12" t="s">
+        <v>254</v>
+      </c>
+      <c r="E12" t="s">
+        <v>267</v>
+      </c>
+      <c r="F12" t="s">
+        <v>279</v>
+      </c>
+      <c r="G12" t="s">
+        <v>292</v>
+      </c>
+      <c r="H12" t="s">
+        <v>305</v>
+      </c>
+      <c r="I12" t="s">
+        <v>318</v>
+      </c>
+      <c r="J12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D13" t="s">
+        <v>255</v>
+      </c>
+      <c r="E13" t="s">
+        <v>268</v>
+      </c>
+      <c r="F13" t="s">
+        <v>280</v>
+      </c>
+      <c r="G13" t="s">
+        <v>293</v>
+      </c>
+      <c r="H13" t="s">
+        <v>306</v>
+      </c>
+      <c r="I13" t="s">
+        <v>319</v>
+      </c>
+      <c r="J13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
+        <v>256</v>
+      </c>
+      <c r="E14" t="s">
+        <v>269</v>
+      </c>
+      <c r="F14" t="s">
+        <v>281</v>
+      </c>
+      <c r="G14" t="s">
+        <v>294</v>
+      </c>
+      <c r="H14" t="s">
+        <v>307</v>
+      </c>
+      <c r="I14" t="s">
+        <v>320</v>
+      </c>
+      <c r="J14" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -2447,7 +3035,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2487,31 +3075,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>264</v>
+        <v>345</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>358</v>
       </c>
       <c r="F2" t="s">
-        <v>283</v>
+        <v>371</v>
       </c>
       <c r="G2" t="s">
-        <v>291</v>
+        <v>382</v>
       </c>
       <c r="H2" t="s">
-        <v>301</v>
+        <v>394</v>
       </c>
       <c r="I2" t="s">
-        <v>311</v>
+        <v>406</v>
       </c>
       <c r="J2" t="s">
-        <v>319</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2519,31 +3107,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>334</v>
       </c>
       <c r="C3" t="s">
-        <v>257</v>
+        <v>336</v>
       </c>
       <c r="D3" t="s">
-        <v>265</v>
+        <v>346</v>
       </c>
       <c r="E3" t="s">
-        <v>275</v>
+        <v>359</v>
       </c>
       <c r="F3" t="s">
-        <v>284</v>
+        <v>372</v>
       </c>
       <c r="G3" t="s">
-        <v>292</v>
+        <v>383</v>
       </c>
       <c r="H3" t="s">
-        <v>302</v>
+        <v>395</v>
       </c>
       <c r="I3" t="s">
-        <v>302</v>
+        <v>407</v>
       </c>
       <c r="J3" t="s">
-        <v>320</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2551,31 +3139,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>254</v>
+        <v>335</v>
       </c>
       <c r="C4" t="s">
-        <v>258</v>
+        <v>337</v>
       </c>
       <c r="D4" t="s">
-        <v>266</v>
+        <v>347</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>360</v>
       </c>
       <c r="F4" t="s">
-        <v>285</v>
+        <v>373</v>
       </c>
       <c r="G4" t="s">
-        <v>293</v>
+        <v>384</v>
       </c>
       <c r="H4" t="s">
-        <v>303</v>
+        <v>396</v>
       </c>
       <c r="I4" t="s">
-        <v>312</v>
+        <v>155</v>
       </c>
       <c r="J4" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2583,31 +3171,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>255</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>267</v>
+        <v>348</v>
       </c>
       <c r="E5" t="s">
-        <v>276</v>
+        <v>361</v>
       </c>
       <c r="F5" t="s">
-        <v>274</v>
+        <v>374</v>
       </c>
       <c r="G5" t="s">
-        <v>294</v>
+        <v>385</v>
       </c>
       <c r="H5" t="s">
-        <v>304</v>
+        <v>397</v>
       </c>
       <c r="I5" t="s">
-        <v>313</v>
+        <v>408</v>
       </c>
       <c r="J5" t="s">
-        <v>322</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2615,31 +3203,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>255</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>259</v>
+        <v>338</v>
       </c>
       <c r="D6" t="s">
-        <v>268</v>
+        <v>349</v>
       </c>
       <c r="E6" t="s">
-        <v>277</v>
+        <v>362</v>
       </c>
       <c r="F6" t="s">
-        <v>286</v>
+        <v>375</v>
       </c>
       <c r="G6" t="s">
-        <v>295</v>
+        <v>386</v>
       </c>
       <c r="H6" t="s">
-        <v>305</v>
+        <v>398</v>
       </c>
       <c r="I6" t="s">
-        <v>314</v>
+        <v>409</v>
       </c>
       <c r="J6" t="s">
-        <v>323</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2647,31 +3235,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>260</v>
+        <v>339</v>
       </c>
       <c r="D7" t="s">
-        <v>269</v>
+        <v>350</v>
       </c>
       <c r="E7" t="s">
-        <v>278</v>
+        <v>363</v>
       </c>
       <c r="F7" t="s">
-        <v>287</v>
+        <v>376</v>
       </c>
       <c r="G7" t="s">
-        <v>296</v>
+        <v>387</v>
       </c>
       <c r="H7" t="s">
-        <v>306</v>
+        <v>399</v>
       </c>
       <c r="I7" t="s">
-        <v>306</v>
+        <v>410</v>
       </c>
       <c r="J7" t="s">
-        <v>324</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2679,31 +3267,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>256</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="D8" t="s">
-        <v>270</v>
+        <v>351</v>
       </c>
       <c r="E8" t="s">
-        <v>279</v>
+        <v>364</v>
       </c>
       <c r="F8" t="s">
-        <v>288</v>
+        <v>377</v>
       </c>
       <c r="G8" t="s">
-        <v>297</v>
+        <v>388</v>
       </c>
       <c r="H8" t="s">
-        <v>307</v>
+        <v>400</v>
       </c>
       <c r="I8" t="s">
-        <v>315</v>
+        <v>411</v>
       </c>
       <c r="J8" t="s">
-        <v>325</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2711,31 +3299,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>256</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="D9" t="s">
-        <v>271</v>
+        <v>352</v>
       </c>
       <c r="E9" t="s">
-        <v>280</v>
+        <v>365</v>
       </c>
       <c r="F9" t="s">
-        <v>289</v>
+        <v>378</v>
       </c>
       <c r="G9" t="s">
-        <v>298</v>
+        <v>389</v>
       </c>
       <c r="H9" t="s">
-        <v>308</v>
+        <v>401</v>
       </c>
       <c r="I9" t="s">
-        <v>316</v>
+        <v>412</v>
       </c>
       <c r="J9" t="s">
-        <v>326</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2743,31 +3331,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>263</v>
+        <v>341</v>
       </c>
       <c r="D10" t="s">
-        <v>272</v>
+        <v>353</v>
       </c>
       <c r="E10" t="s">
-        <v>281</v>
+        <v>366</v>
       </c>
       <c r="F10" t="s">
-        <v>290</v>
+        <v>188</v>
       </c>
       <c r="G10" t="s">
-        <v>299</v>
+        <v>114</v>
       </c>
       <c r="H10" t="s">
-        <v>309</v>
+        <v>402</v>
       </c>
       <c r="I10" t="s">
-        <v>317</v>
+        <v>413</v>
       </c>
       <c r="J10" t="s">
-        <v>327</v>
+        <v>424</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2775,31 +3363,127 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>187</v>
+        <v>242</v>
       </c>
       <c r="D11" t="s">
-        <v>273</v>
+        <v>354</v>
       </c>
       <c r="E11" t="s">
-        <v>282</v>
+        <v>367</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>379</v>
       </c>
       <c r="G11" t="s">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="H11" t="s">
-        <v>310</v>
+        <v>403</v>
       </c>
       <c r="I11" t="s">
-        <v>318</v>
+        <v>414</v>
       </c>
       <c r="J11" t="s">
-        <v>328</v>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>342</v>
+      </c>
+      <c r="D12" t="s">
+        <v>355</v>
+      </c>
+      <c r="E12" t="s">
+        <v>368</v>
+      </c>
+      <c r="F12" t="s">
+        <v>380</v>
+      </c>
+      <c r="G12" t="s">
+        <v>391</v>
+      </c>
+      <c r="H12" t="s">
+        <v>404</v>
+      </c>
+      <c r="I12" t="s">
+        <v>415</v>
+      </c>
+      <c r="J12" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>343</v>
+      </c>
+      <c r="D13" t="s">
+        <v>356</v>
+      </c>
+      <c r="E13" t="s">
+        <v>369</v>
+      </c>
+      <c r="F13" t="s">
+        <v>356</v>
+      </c>
+      <c r="G13" t="s">
+        <v>392</v>
+      </c>
+      <c r="H13" t="s">
+        <v>392</v>
+      </c>
+      <c r="I13" t="s">
+        <v>416</v>
+      </c>
+      <c r="J13" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>344</v>
+      </c>
+      <c r="D14" t="s">
+        <v>357</v>
+      </c>
+      <c r="E14" t="s">
+        <v>370</v>
+      </c>
+      <c r="F14" t="s">
+        <v>381</v>
+      </c>
+      <c r="G14" t="s">
+        <v>393</v>
+      </c>
+      <c r="H14" t="s">
+        <v>405</v>
+      </c>
+      <c r="I14" t="s">
+        <v>417</v>
+      </c>
+      <c r="J14" t="s">
+        <v>428</v>
       </c>
     </row>
   </sheetData>
